--- a/AfDD_2024_Annex_Table_Tab22.xlsx
+++ b/AfDD_2024_Annex_Table_Tab22.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E7760C6-ED39-4E80-A38E-41A2BB54141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFE04CD-AFF2-45E7-B6E6-C369CB29631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{9BD31B4D-848B-490C-BE8B-02FAD025861E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1D9CB700-C53C-49EB-A9F1-6721C7E45939}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -555,10 +555,10 @@
     <t>Source: IMF Balance of Payments and International Investment Position Statistics (updated 25/10/2023).</t>
   </si>
   <si>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
+  </si>
+  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
-  </si>
-  <si>
-    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
@@ -576,30 +576,17 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -612,6 +599,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,6 +680,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -693,10 +695,23 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -711,13 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFD42C2D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,24 +747,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -758,7 +760,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -766,20 +768,33 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -787,7 +802,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
@@ -797,7 +812,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom/>
@@ -805,77 +820,25 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF0070C0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,285 +847,534 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF0070C0"/>
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1478,19 +1690,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA515E5-F6F4-4374-9947-E9E0F2C6B3D8}">
-  <sheetPr codeName="Sheet19">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EDCF9-C9CD-455A-8784-D72CC8B10E35}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="154" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="154" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="154" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="154" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,3945 +1715,3947 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11">
-        <v>37.794060205488002</v>
-      </c>
-      <c r="D3" s="12">
-        <v>3.8301892924181402</v>
-      </c>
-      <c r="E3" s="12">
-        <v>8.4708045421901996</v>
-      </c>
-      <c r="F3" s="13">
-        <v>0.19240846617643001</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="C3" s="20">
+        <v>37.794060208735097</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3.8301892927472099</v>
+      </c>
+      <c r="E3" s="21">
+        <v>8.4708045429179695</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.19240846619296001</v>
+      </c>
+      <c r="G3" s="23">
         <v>21595.055055266399</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="24">
         <v>2188.5224342699998</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="24">
         <v>4840.1121619750002</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="25">
         <v>109.93980000000001</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="26">
         <v>10.814415339865</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="27">
         <v>2.2716142341359999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18">
-        <v>38.401765110158898</v>
-      </c>
-      <c r="D4" s="19">
-        <v>4.2792288305460002E-2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>7.4656365852719597</v>
-      </c>
-      <c r="F4" s="20">
-        <v>-0.1363609476547</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="C4" s="29">
+        <v>38.401765101692199</v>
+      </c>
+      <c r="D4" s="30">
+        <v>4.2792288296019998E-2</v>
+      </c>
+      <c r="E4" s="30">
+        <v>7.4656365836259697</v>
+      </c>
+      <c r="F4" s="31">
+        <v>-0.13636094762459999</v>
+      </c>
+      <c r="G4" s="32">
         <v>5733.39050344319</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="33">
         <v>6.3888964136758197</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="33">
         <v>1114.6208976949599</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="34">
         <v>-20.358714243502</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="35">
         <v>0.11421685021855001</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="36">
         <v>-1.9143110861257</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25">
-        <v>24.167132706667999</v>
-      </c>
-      <c r="D5" s="26">
-        <v>11.416816711968901</v>
-      </c>
-      <c r="E5" s="26">
-        <v>3.6746874676690702</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.11189049739077001</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="C5" s="38">
+        <v>24.167132707519301</v>
+      </c>
+      <c r="D5" s="39">
+        <v>11.416816712371</v>
+      </c>
+      <c r="E5" s="39">
+        <v>3.6746874677985102</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.11189049739471001</v>
+      </c>
+      <c r="G5" s="41">
         <v>962.76298967081095</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="42">
         <v>454.81972245330002</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="42">
         <v>146.39109800157601</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="43">
         <v>4.4574601005096497</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="44">
         <v>46.933187271647697</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="45">
         <v>2.8330333973603299</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="25">
-        <v>52.946773309302898</v>
-      </c>
-      <c r="D6" s="26">
-        <v>4.5608133791165804</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="28">
+      <c r="C6" s="38">
+        <v>53.985443450660497</v>
+      </c>
+      <c r="D6" s="39">
+        <v>4.6502839999137899</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="41">
         <v>1129.61467353124</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="42">
         <v>97.3045455705319</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="I6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="44">
         <v>8.5159140173328502</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="25">
-        <v>12.7374358246493</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.86307601827188996</v>
-      </c>
-      <c r="E7" s="26">
-        <v>1.8845616099574201</v>
-      </c>
-      <c r="F7" s="27">
+      <c r="C7" s="38">
+        <v>12.7374358193016</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.86307601790953004</v>
+      </c>
+      <c r="E7" s="39">
+        <v>1.8845616091662001</v>
+      </c>
+      <c r="F7" s="40">
         <v>0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="41">
         <v>1509.0467441461401</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="42">
         <v>102.251510685014</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="42">
         <v>223.27033484601299</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="43">
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="44">
         <v>6.8724875505817904</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25">
-        <v>327.029409185281</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.88995715607934001</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0.13192225994706</v>
-      </c>
-      <c r="F8" s="27">
-        <v>7.693641590236E-2</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="C8" s="38">
+        <v>325.22504143083898</v>
+      </c>
+      <c r="D8" s="39">
+        <v>0.88504686376261998</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0.13119438573986</v>
+      </c>
+      <c r="F8" s="40">
+        <v>7.6511923229539994E-2</v>
+      </c>
+      <c r="G8" s="41">
         <v>46297.129518271198</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="42">
         <v>125.9900809024</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="42">
         <v>18.676063325092802</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="43">
         <v>10.891788663830299</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="44">
         <v>0.28183709019759001</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="45">
         <v>19.015173373142598</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25">
-        <v>66.582053026824596</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0.51437007482921004</v>
-      </c>
-      <c r="E9" s="26">
-        <v>10.0744408721081</v>
-      </c>
-      <c r="F9" s="27">
-        <v>2.1910617578830002E-2</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="C9" s="38">
+        <v>66.582053004844994</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0.51437007465940998</v>
+      </c>
+      <c r="E9" s="39">
+        <v>10.0744408687824</v>
+      </c>
+      <c r="F9" s="40">
+        <v>2.19106175716E-2</v>
+      </c>
+      <c r="G9" s="41">
         <v>7046.5986898969004</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="42">
         <v>54.437484737117003</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="42">
         <v>1066.21136813309</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="43">
         <v>2.3188730612381301</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="44">
         <v>0.78473809184518994</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="45">
         <v>0.21420023291314</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="25">
-        <v>39.364135567824398</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1.1038684323488499</v>
-      </c>
-      <c r="E10" s="26">
-        <v>74.207301907291196</v>
-      </c>
-      <c r="F10" s="27">
-        <v>1.1378107974916101</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="C10" s="38">
+        <v>39.364135567818003</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1.10386843234868</v>
+      </c>
+      <c r="E10" s="39">
+        <v>74.207301907279103</v>
+      </c>
+      <c r="F10" s="40">
+        <v>1.13781079749143</v>
+      </c>
+      <c r="G10" s="41">
         <v>133126.574807</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="42">
         <v>3733.2008264978499</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="42">
         <v>250963.568387401</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="43">
         <v>3847.9913775190598</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="44">
         <v>2.6821563207204799</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="45">
         <v>1.65163444500919</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="18">
-        <v>83.585893807634804</v>
-      </c>
-      <c r="D11" s="19">
-        <v>2.13036680432488</v>
-      </c>
-      <c r="E11" s="19">
-        <v>6.1923580066843398</v>
-      </c>
-      <c r="F11" s="20">
-        <v>4.8330169210800002E-2</v>
-      </c>
-      <c r="G11" s="21">
+      <c r="C11" s="29">
+        <v>83.460883567453493</v>
+      </c>
+      <c r="D11" s="30">
+        <v>2.1271806486979998</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6.1830967769906602</v>
+      </c>
+      <c r="F11" s="31">
+        <v>4.8257887085360003E-2</v>
+      </c>
+      <c r="G11" s="32">
         <v>15137.939162078799</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="33">
         <v>385.823033142425</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="33">
         <v>1121.47558044581</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="34">
         <v>8.7529022886302208</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="35">
         <v>2.1408504697084498</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="36">
         <v>0.82396231805705999</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="26">
-        <v>0.85916561770544997</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="27">
-        <v>1.3970696171900001E-2</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="C12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0.86000355188250999</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="49">
+        <v>1.398432162845E-2</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="51">
         <v>231.1553912</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="30">
+      <c r="I12" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="52">
         <v>3.7587651000000002</v>
       </c>
-      <c r="K12" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="K12" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33">
-        <v>50.718174615236897</v>
-      </c>
-      <c r="D13" s="34">
-        <v>1.6575910539932599</v>
-      </c>
-      <c r="E13" s="34">
-        <v>51.027392674182501</v>
-      </c>
-      <c r="F13" s="35">
-        <v>0.76335124622434003</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="C13" s="57">
+        <v>50.689513955017901</v>
+      </c>
+      <c r="D13" s="58">
+        <v>1.65660389378454</v>
+      </c>
+      <c r="E13" s="58">
+        <v>51.020659293587897</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0.76265964321682</v>
+      </c>
+      <c r="G13" s="60">
         <v>232538.11214330501</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="61">
         <v>7379.8939258723103</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="61">
         <v>259494.32589182301</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="62">
         <v>3967.7522524897699</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="63">
         <v>3.0001551358001501</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="64">
         <v>1.6410370404201899</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="C14" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="73" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="25">
-        <v>21.8560157219475</v>
-      </c>
-      <c r="D15" s="26">
-        <v>1.6061909398696499</v>
-      </c>
-      <c r="E15" s="26">
-        <v>2.5031397224315399</v>
-      </c>
-      <c r="F15" s="27">
-        <v>4.3903424367500001E-3</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="C15" s="38">
+        <v>21.856015723672598</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1.60619093999642</v>
+      </c>
+      <c r="E15" s="39">
+        <v>2.5031397226291099</v>
+      </c>
+      <c r="F15" s="40">
+        <v>4.3903424370999996E-3</v>
+      </c>
+      <c r="G15" s="41">
         <v>8931.1274141445301</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="42">
         <v>656.34542534736704</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="42">
         <v>1022.86986250623</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="43">
         <v>1.7940464626842201</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="44">
         <v>7.5142435834149701</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="45">
         <v>0.17914762203019999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="27" t="s">
+      <c r="C16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="42" t="s">
+      <c r="C17" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="40">
-        <v>86.479713913962499</v>
-      </c>
-      <c r="D18" s="41">
-        <v>-1.661456659323</v>
-      </c>
-      <c r="E18" s="41">
-        <v>8.8476926916414609</v>
-      </c>
-      <c r="F18" s="42">
+      <c r="C18" s="75">
+        <v>86.479713926059603</v>
+      </c>
+      <c r="D18" s="76">
+        <v>-1.6614566595553999</v>
+      </c>
+      <c r="E18" s="76">
+        <v>8.8476926928791002</v>
+      </c>
+      <c r="F18" s="77">
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="78">
         <v>9932.4355666606298</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="79">
         <v>-190.82291636560001</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="79">
         <v>1016.18210324762</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="80">
         <v>0</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="81">
         <v>-1.8932839123123</v>
       </c>
-      <c r="L18" s="42">
+      <c r="L18" s="82">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="18">
-        <v>55.627423796465699</v>
-      </c>
-      <c r="D19" s="19">
-        <v>0.61335822203156998</v>
-      </c>
-      <c r="E19" s="19">
-        <v>2.29818369099192</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="21">
+      <c r="C19" s="29">
+        <v>54.611509437475398</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0.60215656316550004</v>
+      </c>
+      <c r="E19" s="30">
+        <v>2.2562123457105199</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="32">
         <v>27094.1840351965</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="33">
         <v>298.74546425211599</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="33">
         <v>1119.36537090503</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="19">
+      <c r="J19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="35">
         <v>1.1449277901284201</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="42" t="s">
+      <c r="C20" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="42" t="s">
+      <c r="C21" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="25">
-        <v>73.901103949351196</v>
-      </c>
-      <c r="D22" s="26">
+      <c r="C22" s="47">
+        <v>73.901103949174697</v>
+      </c>
+      <c r="D22" s="48">
         <v>0</v>
       </c>
-      <c r="E22" s="26">
-        <v>0.88287218089546005</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="E22" s="48">
+        <v>0.88287218089334996</v>
+      </c>
+      <c r="F22" s="49">
         <v>0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="50">
         <v>351.50890785995801</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="51">
         <v>0</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="51">
         <v>4.1993613018175502</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="52">
         <v>0</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="53">
         <v>0</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="33">
-        <v>43.703756651813201</v>
-      </c>
-      <c r="D23" s="34">
-        <v>0.83032338353010005</v>
-      </c>
-      <c r="E23" s="34">
-        <v>3.0225612721572301</v>
-      </c>
-      <c r="F23" s="35">
-        <v>3.57699472601E-3</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="C23" s="57">
+        <v>43.241471660504402</v>
+      </c>
+      <c r="D23" s="58">
+        <v>0.8252261439013</v>
+      </c>
+      <c r="E23" s="58">
+        <v>3.0034624940756798</v>
+      </c>
+      <c r="F23" s="59">
+        <v>3.57699472603E-3</v>
+      </c>
+      <c r="G23" s="60">
         <v>46309.255923861601</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="61">
         <v>764.26797323388598</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="61">
         <v>3162.6166979607001</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="62">
         <v>1.7940464626842201</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="63">
         <v>1.6901736709566999</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="64">
         <v>0.10596953031502999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0.17428843952216</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="29">
+      <c r="C24" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="67">
+        <v>0.17428843945440001</v>
+      </c>
+      <c r="E24" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="70">
         <v>2.12246304748124</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="27" t="s">
+      <c r="I24" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="73" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="25">
-        <v>59.861123675260899</v>
-      </c>
-      <c r="D25" s="26">
-        <v>3.72107095002207</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="28">
+      <c r="C25" s="38">
+        <v>59.861123679557501</v>
+      </c>
+      <c r="D25" s="39">
+        <v>3.7210709502891501</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="41">
         <v>1906.6671681170501</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="42">
         <v>118.521727876841</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="26">
+      <c r="I25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="44">
         <v>6.4852719556369998</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="C26" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="27" t="s">
+      <c r="C27" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="25">
-        <v>11.8097437005384</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0.60995750508704005</v>
-      </c>
-      <c r="E28" s="26">
-        <v>1.46221732444726</v>
-      </c>
-      <c r="F28" s="27">
-        <v>-6.4284542468699996E-2</v>
-      </c>
-      <c r="G28" s="28">
+      <c r="C28" s="38">
+        <v>11.8097436967823</v>
+      </c>
+      <c r="D28" s="39">
+        <v>0.60995750489304001</v>
+      </c>
+      <c r="E28" s="39">
+        <v>1.46221732398221</v>
+      </c>
+      <c r="F28" s="40">
+        <v>-6.4284542448299994E-2</v>
+      </c>
+      <c r="G28" s="41">
         <v>11917.482169827499</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="42">
         <v>615.522053276728</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="42">
         <v>1475.5569074474299</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="43">
         <v>-64.871000429215002</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="44">
         <v>5.4926258838881097</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="45">
         <v>-4.0411496659382999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="25">
-        <v>31.418474173016399</v>
-      </c>
-      <c r="D29" s="26">
-        <v>2.5544752125937902</v>
-      </c>
-      <c r="E29" s="26">
-        <v>5.4683524974253697</v>
-      </c>
-      <c r="F29" s="27">
+      <c r="C29" s="38">
+        <v>31.418474181300802</v>
+      </c>
+      <c r="D29" s="39">
+        <v>2.5544752132673501</v>
+      </c>
+      <c r="E29" s="39">
+        <v>5.4683524988672696</v>
+      </c>
+      <c r="F29" s="40">
         <v>0</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="41">
         <v>4100.5636837096499</v>
       </c>
-      <c r="H29" s="29">
+      <c r="H29" s="42">
         <v>333.39583042816298</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="42">
         <v>713.69881099839199</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="43">
         <v>0</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="44">
         <v>6.8048760476499499</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L29" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="25">
-        <v>2902.4220790751501</v>
-      </c>
-      <c r="D30" s="26">
-        <v>43.390955091278997</v>
-      </c>
-      <c r="E30" s="26">
-        <v>2488.6961533727499</v>
-      </c>
-      <c r="F30" s="27">
-        <v>54.275964451218101</v>
-      </c>
-      <c r="G30" s="28">
+      <c r="C30" s="38">
+        <v>2900.6245292599101</v>
+      </c>
+      <c r="D30" s="39">
+        <v>43.364081879463903</v>
+      </c>
+      <c r="E30" s="39">
+        <v>2487.1548354014799</v>
+      </c>
+      <c r="F30" s="40">
+        <v>54.242349853749701</v>
+      </c>
+      <c r="G30" s="41">
         <v>330906.33111215697</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="42">
         <v>4947.0205785103199</v>
       </c>
-      <c r="I30" s="29">
+      <c r="I30" s="42">
         <v>283737.26871176797</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J30" s="43">
         <v>6188.0249580548298</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="44">
         <v>1.5134016959665499</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="45">
         <v>2.2278112015920102</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="25">
-        <v>26.610098790705901</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0.40673227836581999</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0.72389485547373</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="C31" s="38">
+        <v>26.610098792529602</v>
+      </c>
+      <c r="D31" s="39">
+        <v>0.40673227839369003</v>
+      </c>
+      <c r="E31" s="39">
+        <v>0.72389485552333999</v>
+      </c>
+      <c r="F31" s="40">
         <v>0</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="41">
         <v>2707.0974021782799</v>
       </c>
-      <c r="H31" s="29">
+      <c r="H31" s="42">
         <v>41.377670289999998</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="42">
         <v>73.643239663116304</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J31" s="43">
         <v>0</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="44">
         <v>1.5750939557194401</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="25">
-        <v>286.14549015893198</v>
-      </c>
-      <c r="D32" s="26">
-        <v>3.0046897880383701</v>
-      </c>
-      <c r="E32" s="26">
-        <v>133.43192315142301</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0.23809327861084001</v>
-      </c>
-      <c r="G32" s="28">
+      <c r="C32" s="38">
+        <v>285.41708571800598</v>
+      </c>
+      <c r="D32" s="39">
+        <v>2.9970411286658498</v>
+      </c>
+      <c r="E32" s="39">
+        <v>133.09226235393601</v>
+      </c>
+      <c r="F32" s="40">
+        <v>0.23748719461699999</v>
+      </c>
+      <c r="G32" s="41">
         <v>3949.7832601824398</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H32" s="42">
         <v>41.474962335570602</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I32" s="42">
         <v>1841.8154210458399</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="43">
         <v>3.2864989264611699</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="44">
         <v>1.0596171906420599</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="45">
         <v>0.17583551495856001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="27" t="s">
+      <c r="C33" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="41">
-        <v>5.6183232388320397</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="44">
+      <c r="C34" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="76">
+        <v>5.5445714947241296</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="79">
         <v>300.7</v>
       </c>
-      <c r="I34" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="42" t="s">
+      <c r="I34" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="25">
-        <v>84.747954462390098</v>
-      </c>
-      <c r="D35" s="26">
-        <v>7.8500131792180003E-2</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="27">
-        <v>1.925995669E-5</v>
-      </c>
-      <c r="G35" s="28">
+      <c r="C35" s="38">
+        <v>84.742092132828802</v>
+      </c>
+      <c r="D35" s="39">
+        <v>7.8494701647630005E-2</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="40">
+        <v>1.9258624410000001E-5</v>
+      </c>
+      <c r="G35" s="41">
         <v>29210.837597010701</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="42">
         <v>27.057344518479699</v>
       </c>
-      <c r="I35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="30">
+      <c r="I35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="43">
         <v>6.6385020228599996E-3</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="44">
         <v>9.3778593010799993E-2</v>
       </c>
-      <c r="L35" s="27" t="s">
+      <c r="L35" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="25">
-        <v>23.818016157120201</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0.83154131432782996</v>
-      </c>
-      <c r="E36" s="26">
-        <v>3.09135296637576</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="28">
+      <c r="C36" s="38">
+        <v>24.6360973390202</v>
+      </c>
+      <c r="D36" s="39">
+        <v>0.86010239585268999</v>
+      </c>
+      <c r="E36" s="39">
+        <v>3.19753215744357</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="41">
         <v>15612.564194766001</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="42">
         <v>545.07025542773204</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="42">
         <v>2026.36299840589</v>
       </c>
-      <c r="J36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="26">
+      <c r="J36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="44">
         <v>3.5888848089252399</v>
       </c>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="25">
-        <v>40.769227796225898</v>
-      </c>
-      <c r="D37" s="26">
-        <v>0.88780704245617004</v>
-      </c>
-      <c r="E37" s="26">
-        <v>0.45785802245708002</v>
-      </c>
-      <c r="F37" s="27">
-        <v>8.6494604459E-4</v>
-      </c>
-      <c r="G37" s="28">
+      <c r="C37" s="47">
+        <v>40.797234988807503</v>
+      </c>
+      <c r="D37" s="48">
+        <v>0.88841693830549995</v>
+      </c>
+      <c r="E37" s="48">
+        <v>0.45817255669044998</v>
+      </c>
+      <c r="F37" s="49">
+        <v>8.6554023563999995E-4</v>
+      </c>
+      <c r="G37" s="50">
         <v>15462.590618795</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="51">
         <v>336.71956983334798</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="51">
         <v>173.652324203213</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="52">
         <v>0.32804905360676001</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37" s="53">
         <v>2.2409567711963998</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L37" s="54">
         <v>0.18909016742358001</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="33">
-        <v>133.321903808776</v>
-      </c>
-      <c r="D38" s="34">
-        <v>2.1298974177066499</v>
-      </c>
-      <c r="E38" s="34">
-        <v>110.217308394817</v>
-      </c>
-      <c r="F38" s="35">
-        <v>2.2653324026264001</v>
-      </c>
-      <c r="G38" s="36">
+      <c r="C38" s="57">
+        <v>133.516443075067</v>
+      </c>
+      <c r="D38" s="58">
+        <v>2.1357329282250799</v>
+      </c>
+      <c r="E38" s="58">
+        <v>110.30273701778199</v>
+      </c>
+      <c r="F38" s="59">
+        <v>2.2654179831122798</v>
+      </c>
+      <c r="G38" s="60">
         <v>415773.91720674402</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="61">
         <v>7308.9824555446703</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="61">
         <v>290041.99841353198</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="62">
         <v>6126.7751441077098</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="63">
         <v>1.70706635322183</v>
       </c>
-      <c r="L38" s="35">
+      <c r="L38" s="64">
         <v>2.1714213826907098</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="40">
-        <v>13.304640765533399</v>
-      </c>
-      <c r="D39" s="41">
-        <v>2.58378943427866</v>
-      </c>
-      <c r="E39" s="41">
-        <v>1.75097387121137</v>
-      </c>
-      <c r="F39" s="42">
-        <v>9.3769841381170005E-2</v>
-      </c>
-      <c r="G39" s="43">
+      <c r="C39" s="20">
+        <v>11.76093477179</v>
+      </c>
+      <c r="D39" s="21">
+        <v>2.2839984585914599</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.54781251514685</v>
+      </c>
+      <c r="F39" s="22">
+        <v>8.2889948513449996E-2</v>
+      </c>
+      <c r="G39" s="23">
         <v>19378.945431099801</v>
       </c>
-      <c r="H39" s="44">
+      <c r="H39" s="24">
         <v>3763.43227410175</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="24">
         <v>2550.3903261627302</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="25">
         <v>136.58096232977499</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="26">
         <v>19.002002995243199</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="27">
         <v>5.3707470804061597</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="25">
-        <v>34.632118353758301</v>
-      </c>
-      <c r="D40" s="26">
-        <v>1.78952889022527</v>
-      </c>
-      <c r="E40" s="26">
-        <v>2.2171346409106198</v>
-      </c>
-      <c r="F40" s="27">
-        <v>2.622049079522E-2</v>
-      </c>
-      <c r="G40" s="28">
+      <c r="C40" s="38">
+        <v>34.6321183500161</v>
+      </c>
+      <c r="D40" s="39">
+        <v>1.7895288900319</v>
+      </c>
+      <c r="E40" s="39">
+        <v>2.2171346406710399</v>
+      </c>
+      <c r="F40" s="40">
+        <v>2.622049079239E-2</v>
+      </c>
+      <c r="G40" s="41">
         <v>132476.6</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="42">
         <v>6845.4</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="42">
         <v>8481.1</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="43">
         <v>100.3</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="44">
         <v>5.28366285794338</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="45">
         <v>1.205840451559</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="41">
-        <v>0.67688067202157998</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="42">
-        <v>0.11188990957536001</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="44">
+      <c r="C41" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="76">
+        <v>0.67688067196872004</v>
+      </c>
+      <c r="E41" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="77">
+        <v>0.11188990956662</v>
+      </c>
+      <c r="G41" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="79">
         <v>317.60000000000002</v>
       </c>
-      <c r="I41" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="45">
+      <c r="I41" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="80">
         <v>52.5</v>
       </c>
-      <c r="K41" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="42" t="s">
+      <c r="K41" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="41">
-        <v>0.96927774264584998</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="44">
+      <c r="C42" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="76">
+        <v>0.98626089082888002</v>
+      </c>
+      <c r="E42" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="79">
         <v>83.472272226742106</v>
       </c>
-      <c r="I42" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="42" t="s">
+      <c r="I42" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="82" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="25">
-        <v>59.310139290859702</v>
-      </c>
-      <c r="D43" s="26">
-        <v>0.83148013080839001</v>
-      </c>
-      <c r="E43" s="26">
-        <v>6.0347699882224797</v>
-      </c>
-      <c r="F43" s="27">
-        <v>0.3411925472497</v>
-      </c>
-      <c r="G43" s="28">
+      <c r="C43" s="38">
+        <v>59.310139310272803</v>
+      </c>
+      <c r="D43" s="39">
+        <v>0.83148013108054997</v>
+      </c>
+      <c r="E43" s="39">
+        <v>6.0347699901977601</v>
+      </c>
+      <c r="F43" s="40">
+        <v>0.34119254736137999</v>
+      </c>
+      <c r="G43" s="41">
         <v>71975.013475878193</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="42">
         <v>1009.03141242634</v>
       </c>
-      <c r="I43" s="29">
+      <c r="I43" s="42">
         <v>7323.4131030455501</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="43">
         <v>414.04957870249098</v>
       </c>
-      <c r="K43" s="26">
+      <c r="K43" s="44">
         <v>1.4568101682074801</v>
       </c>
-      <c r="L43" s="27">
+      <c r="L43" s="45">
         <v>6.0137315496923804</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="25">
-        <v>89.222993879663505</v>
-      </c>
-      <c r="D44" s="26">
-        <v>2.0740181879188699</v>
-      </c>
-      <c r="E44" s="26">
-        <v>1.52654027701978</v>
-      </c>
-      <c r="F44" s="27">
-        <v>5.1321773561529997E-2</v>
-      </c>
-      <c r="G44" s="28">
+      <c r="C44" s="47">
+        <v>89.222993880915098</v>
+      </c>
+      <c r="D44" s="48">
+        <v>2.07401818794796</v>
+      </c>
+      <c r="E44" s="48">
+        <v>1.52654027704119</v>
+      </c>
+      <c r="F44" s="49">
+        <v>5.1321773562249998E-2</v>
+      </c>
+      <c r="G44" s="50">
         <v>37955.337005952599</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="51">
         <v>882.28444099406602</v>
       </c>
-      <c r="I44" s="29">
+      <c r="I44" s="51">
         <v>649.38810219248001</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="52">
         <v>21.8322108076555</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="53">
         <v>2.4084725875511199</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L44" s="54">
         <v>3.5387725844904199</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="33">
-        <v>36.354277386577898</v>
-      </c>
-      <c r="D45" s="34">
-        <v>1.7886260875786799</v>
-      </c>
-      <c r="E45" s="34">
-        <v>2.5755344976112098</v>
-      </c>
-      <c r="F45" s="35">
-        <v>8.4568943713349998E-2</v>
-      </c>
-      <c r="G45" s="36">
+      <c r="C45" s="57">
+        <v>35.333555204274298</v>
+      </c>
+      <c r="D45" s="58">
+        <v>1.74318569441496</v>
+      </c>
+      <c r="E45" s="58">
+        <v>2.5034672170641299</v>
+      </c>
+      <c r="F45" s="59">
+        <v>8.2347641694539994E-2</v>
+      </c>
+      <c r="G45" s="60">
         <v>261785.89591293101</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="61">
         <v>12901.2203997489</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="61">
         <v>19004.291531400799</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="62">
         <v>725.26275183992198</v>
       </c>
-      <c r="K45" s="34">
+      <c r="K45" s="63">
         <v>4.8970469700439203</v>
       </c>
-      <c r="L45" s="35">
+      <c r="L45" s="64">
         <v>3.66370334676806</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="25">
-        <v>21.879056738561999</v>
-      </c>
-      <c r="D46" s="26">
-        <v>0.31204443385049002</v>
-      </c>
-      <c r="E46" s="26">
-        <v>3.4499275010899502</v>
-      </c>
-      <c r="F46" s="27">
-        <v>8.3613140674139996E-2</v>
-      </c>
-      <c r="G46" s="28">
+      <c r="C46" s="66">
+        <v>21.879056743076902</v>
+      </c>
+      <c r="D46" s="67">
+        <v>0.31204443391488002</v>
+      </c>
+      <c r="E46" s="67">
+        <v>3.4499275018018798</v>
+      </c>
+      <c r="F46" s="68">
+        <v>8.3613140691390003E-2</v>
+      </c>
+      <c r="G46" s="69">
         <v>3429.3639898819602</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="70">
         <v>48.910424131945597</v>
       </c>
-      <c r="I46" s="29">
+      <c r="I46" s="70">
         <v>540.74804418277495</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="71">
         <v>13.105678966654599</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="72">
         <v>1.5290284270163601</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L46" s="73">
         <v>2.5835265421704898</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="25">
-        <v>21.031673827796599</v>
-      </c>
-      <c r="D47" s="26">
-        <v>2.9499812292891199</v>
-      </c>
-      <c r="E47" s="26">
-        <v>1.13579880837178</v>
-      </c>
-      <c r="F47" s="27">
-        <v>0.12089384919043</v>
-      </c>
-      <c r="G47" s="28">
+      <c r="C47" s="38">
+        <v>21.274973724011399</v>
+      </c>
+      <c r="D47" s="39">
+        <v>2.98410738267083</v>
+      </c>
+      <c r="E47" s="39">
+        <v>1.14893802565235</v>
+      </c>
+      <c r="F47" s="40">
+        <v>0.12229238081476999</v>
+      </c>
+      <c r="G47" s="41">
         <v>3777.19204519496</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="42">
         <v>529.803082911003</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="42">
         <v>203.984250566577</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="43">
         <v>21.7119801882614</v>
       </c>
-      <c r="K47" s="26">
+      <c r="K47" s="44">
         <v>14.4507163814098</v>
       </c>
-      <c r="L47" s="27">
+      <c r="L47" s="45">
         <v>10.916952327929501</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="40">
-        <v>132.02786592861199</v>
-      </c>
-      <c r="D48" s="41">
-        <v>0.88763158450962998</v>
-      </c>
-      <c r="E48" s="41">
-        <v>4.4781014369534304</v>
-      </c>
-      <c r="F48" s="42">
-        <v>6.860657620242E-2</v>
-      </c>
-      <c r="G48" s="43">
+      <c r="C48" s="75">
+        <v>134.94420894439</v>
+      </c>
+      <c r="D48" s="76">
+        <v>0.90723834065813003</v>
+      </c>
+      <c r="E48" s="76">
+        <v>4.5770175237791202</v>
+      </c>
+      <c r="F48" s="77">
+        <v>7.0122016203950005E-2</v>
+      </c>
+      <c r="G48" s="78">
         <v>2469.7323733379799</v>
       </c>
-      <c r="H48" s="44">
+      <c r="H48" s="79">
         <v>16.604164919594002</v>
       </c>
-      <c r="I48" s="44">
+      <c r="I48" s="79">
         <v>83.768013760937805</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="80">
         <v>1.28336454641034</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="81">
         <v>0.71363146911955</v>
       </c>
-      <c r="L48" s="42">
+      <c r="L48" s="82">
         <v>1.64822738732047</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="25">
-        <v>19.336709926108</v>
-      </c>
-      <c r="D49" s="26">
-        <v>2.03705728601417</v>
-      </c>
-      <c r="E49" s="26">
-        <v>3.9707676251662201</v>
-      </c>
-      <c r="F49" s="27">
-        <v>0.20281290760932</v>
-      </c>
-      <c r="G49" s="28">
+      <c r="C49" s="38">
+        <v>19.322878173746499</v>
+      </c>
+      <c r="D49" s="39">
+        <v>2.0356001574729699</v>
+      </c>
+      <c r="E49" s="39">
+        <v>3.9679272932438701</v>
+      </c>
+      <c r="F49" s="40">
+        <v>0.20266783339947</v>
+      </c>
+      <c r="G49" s="41">
         <v>12196.412289748299</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="42">
         <v>1284.8509706669199</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="42">
         <v>2504.5170170300798</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="43">
         <v>127.92196026823299</v>
       </c>
-      <c r="K49" s="26">
+      <c r="K49" s="44">
         <v>11.459731236258101</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="45">
         <v>5.3969335695398701</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="26">
-        <v>0.78831953788036002</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="27">
+      <c r="C50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="39">
+        <v>0.78831953793668996</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="40">
         <v>0</v>
       </c>
-      <c r="G50" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="29">
+      <c r="G50" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="42">
         <v>14.263999999999999</v>
       </c>
-      <c r="I50" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="30">
+      <c r="I50" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="43">
         <v>0</v>
       </c>
-      <c r="K50" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="27" t="s">
+      <c r="K50" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="18">
-        <v>19.0450698707578</v>
-      </c>
-      <c r="D51" s="19">
-        <v>3.5157511565253099</v>
-      </c>
-      <c r="E51" s="19">
-        <v>0.83366821781654998</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="21">
+      <c r="C51" s="29">
+        <v>19.045069870407399</v>
+      </c>
+      <c r="D51" s="30">
+        <v>3.5157511564606301</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0.83366821780121003</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="32">
         <v>13333.118059254901</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="33">
         <v>2461.3154771822701</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="33">
         <v>583.63643955244595</v>
       </c>
-      <c r="J51" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="19">
+      <c r="J51" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="35">
         <v>17.676796811222601</v>
       </c>
-      <c r="L51" s="20" t="s">
+      <c r="L51" s="36" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="26">
-        <v>0.17467901752667001</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="27">
-        <v>9.227254075E-4</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="29">
+      <c r="C52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="39">
+        <v>0.17467929562720999</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="40">
+        <v>9.2272687653999999E-4</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="42">
         <v>24.61</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="30">
+      <c r="I52" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="43">
         <v>0.13</v>
       </c>
-      <c r="K52" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="27" t="s">
+      <c r="K52" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="25">
-        <v>22.5001933291088</v>
-      </c>
-      <c r="D53" s="26">
-        <v>0.88808082865770999</v>
-      </c>
-      <c r="E53" s="26">
-        <v>0.26046080896620999</v>
-      </c>
-      <c r="F53" s="27">
-        <v>2.1667381779250001E-2</v>
-      </c>
-      <c r="G53" s="28">
+      <c r="C53" s="38">
+        <v>22.500193324110899</v>
+      </c>
+      <c r="D53" s="39">
+        <v>0.88808082846044001</v>
+      </c>
+      <c r="E53" s="39">
+        <v>0.26046080890834999</v>
+      </c>
+      <c r="F53" s="40">
+        <v>2.1667381774440001E-2</v>
+      </c>
+      <c r="G53" s="41">
         <v>342.60567573026901</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="42">
         <v>13.522618581758801</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="42">
         <v>3.9659815429974898</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="43">
         <v>0.32992463074453998</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="44">
         <v>4.20465681711892</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="45">
         <v>8.3832111988067304</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="25">
-        <v>19.435730356693899</v>
-      </c>
-      <c r="D54" s="26">
-        <v>1.7310881152031701</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54" s="27">
+      <c r="C54" s="38">
+        <v>19.435730354798601</v>
+      </c>
+      <c r="D54" s="39">
+        <v>1.73108811503435</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="40">
         <v>0</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="41">
         <v>590.30296207230799</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="42">
         <v>52.576693710954501</v>
       </c>
-      <c r="I54" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="30">
+      <c r="I54" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="43">
         <v>0</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="44">
         <v>14.419764630219699</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="25">
-        <v>28.9546657623249</v>
-      </c>
-      <c r="D55" s="26">
-        <v>4.0441736296911603</v>
-      </c>
-      <c r="E55" s="26">
-        <v>0.30888137406108002</v>
-      </c>
-      <c r="F55" s="27">
-        <v>2.2263362044020001E-2</v>
-      </c>
-      <c r="G55" s="28">
+      <c r="C55" s="38">
+        <v>28.9546657688579</v>
+      </c>
+      <c r="D55" s="39">
+        <v>4.0441736306036402</v>
+      </c>
+      <c r="E55" s="39">
+        <v>0.30888137413076999</v>
+      </c>
+      <c r="F55" s="40">
+        <v>2.2263362049049999E-2</v>
+      </c>
+      <c r="G55" s="41">
         <v>5108.4295699336999</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="42">
         <v>713.50767180127104</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="42">
         <v>54.495491600821403</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="43">
         <v>3.9278925864796799</v>
       </c>
-      <c r="K55" s="26">
+      <c r="K55" s="44">
         <v>15.5455893221287</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="45">
         <v>11.854416993049099</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="25">
-        <v>64.560894171388497</v>
-      </c>
-      <c r="D56" s="26">
-        <v>1.0596521024093499</v>
-      </c>
-      <c r="E56" s="26">
-        <v>2.2397401354392499</v>
-      </c>
-      <c r="F56" s="27">
-        <v>3.9894377836120001E-2</v>
-      </c>
-      <c r="G56" s="28">
+      <c r="C56" s="38">
+        <v>64.560894174907403</v>
+      </c>
+      <c r="D56" s="39">
+        <v>1.0596521024671099</v>
+      </c>
+      <c r="E56" s="39">
+        <v>2.2397401355613198</v>
+      </c>
+      <c r="F56" s="40">
+        <v>3.9894377838290002E-2</v>
+      </c>
+      <c r="G56" s="41">
         <v>8886.1937159448007</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="42">
         <v>145.85104457383301</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="42">
         <v>308.27895078488399</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="43">
         <v>5.4910820889146601</v>
       </c>
-      <c r="K56" s="26">
+      <c r="K56" s="44">
         <v>1.6781451792839599</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="45">
         <v>1.85719542058295</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="25">
-        <v>20.2626688128369</v>
-      </c>
-      <c r="D57" s="26">
-        <v>1.1315767497812299</v>
-      </c>
-      <c r="E57" s="26">
-        <v>2.85762757042952</v>
-      </c>
-      <c r="F57" s="27">
-        <v>0.12085091378288999</v>
-      </c>
-      <c r="G57" s="28">
+      <c r="C57" s="38">
+        <v>20.262668814651299</v>
+      </c>
+      <c r="D57" s="39">
+        <v>1.13157674988256</v>
+      </c>
+      <c r="E57" s="39">
+        <v>2.85762757068541</v>
+      </c>
+      <c r="F57" s="40">
+        <v>0.12085091379371</v>
+      </c>
+      <c r="G57" s="41">
         <v>87012.56</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="42">
         <v>4859.2508096745196</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="42">
         <v>12271.31</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="43">
         <v>518.96161772758899</v>
       </c>
-      <c r="K57" s="26">
+      <c r="K57" s="44">
         <v>5.6621477786105396</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L57" s="45">
         <v>4.2384673263219197</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="25">
-        <v>31.944690781492302</v>
-      </c>
-      <c r="D58" s="26">
-        <v>2.1857163762226599</v>
-      </c>
-      <c r="E58" s="26">
-        <v>3.7914533775872301</v>
-      </c>
-      <c r="F58" s="27">
-        <v>0.79392991499479004</v>
-      </c>
-      <c r="G58" s="28">
+      <c r="C58" s="38">
+        <v>31.944690781170902</v>
+      </c>
+      <c r="D58" s="39">
+        <v>2.1857163762006602</v>
+      </c>
+      <c r="E58" s="39">
+        <v>3.7914533775490802</v>
+      </c>
+      <c r="F58" s="40">
+        <v>0.79392991498679999</v>
+      </c>
+      <c r="G58" s="41">
         <v>7837.29410293206</v>
       </c>
-      <c r="H58" s="29">
+      <c r="H58" s="42">
         <v>536.24253818028797</v>
       </c>
-      <c r="I58" s="29">
+      <c r="I58" s="42">
         <v>930.19323307777904</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="43">
         <v>194.782359406496</v>
       </c>
-      <c r="K58" s="26">
+      <c r="K58" s="44">
         <v>7.9562801112408401</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L58" s="45">
         <v>22.219658328377399</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="26">
-        <v>0.57573231071956998</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="27">
+      <c r="C59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="39">
+        <v>0.57573231068604003</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="40">
         <v>0</v>
       </c>
-      <c r="G59" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="29">
+      <c r="G59" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="42">
         <v>23.3677305289721</v>
       </c>
-      <c r="I59" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="30">
+      <c r="I59" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="43">
         <v>0</v>
       </c>
-      <c r="K59" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="27" t="s">
+      <c r="K59" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="18">
-        <v>31.250915917073002</v>
-      </c>
-      <c r="D60" s="19">
-        <v>2.0004004456403899</v>
-      </c>
-      <c r="E60" s="19">
-        <v>45.975037258051799</v>
-      </c>
-      <c r="F60" s="20">
-        <v>1.9375656402383701</v>
-      </c>
-      <c r="G60" s="21">
+      <c r="C60" s="85">
+        <v>31.2509159183126</v>
+      </c>
+      <c r="D60" s="86">
+        <v>2.0004004457197402</v>
+      </c>
+      <c r="E60" s="86">
+        <v>45.9750372598754</v>
+      </c>
+      <c r="F60" s="87">
+        <v>1.9375656403152299</v>
+      </c>
+      <c r="G60" s="88">
         <v>2312.57144212502</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="89">
         <v>148.02986753021301</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="89">
         <v>3402.1581478039002</v>
       </c>
-      <c r="J60" s="23">
+      <c r="J60" s="90">
         <v>143.38008456289799</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K60" s="91">
         <v>6.25888903119347</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="92">
         <v>4.1511340840536404</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="33">
-        <v>21.994263844311199</v>
-      </c>
-      <c r="D61" s="34">
-        <v>1.5883842270299</v>
-      </c>
-      <c r="E61" s="34">
-        <v>3.1246572854016401</v>
-      </c>
-      <c r="F61" s="35">
-        <v>0.16500115331446999</v>
-      </c>
-      <c r="G61" s="36">
+      <c r="C61" s="57">
+        <v>22.004992860677699</v>
+      </c>
+      <c r="D61" s="58">
+        <v>1.58866737508422</v>
+      </c>
+      <c r="E61" s="58">
+        <v>3.1247971441214299</v>
+      </c>
+      <c r="F61" s="59">
+        <v>0.16501929081788999</v>
+      </c>
+      <c r="G61" s="60">
         <v>147295.77622615601</v>
       </c>
-      <c r="H61" s="37">
+      <c r="H61" s="61">
         <v>10872.7070943935</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="61">
         <v>20887.055569903201</v>
       </c>
-      <c r="J61" s="38">
+      <c r="J61" s="62">
         <v>1031.02594497268</v>
       </c>
-      <c r="K61" s="34">
+      <c r="K61" s="63">
         <v>7.5481662872294297</v>
       </c>
-      <c r="L61" s="35">
+      <c r="L61" s="64">
         <v>5.1386173238848096</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="49">
-        <v>48.3929830589964</v>
-      </c>
-      <c r="D62" s="50">
-        <v>1.7190812278718599</v>
-      </c>
-      <c r="E62" s="50">
-        <v>23.790534262545101</v>
-      </c>
-      <c r="F62" s="51">
-        <v>0.48201369387014997</v>
-      </c>
-      <c r="G62" s="52">
+      <c r="C62" s="95">
+        <v>47.8867806612189</v>
+      </c>
+      <c r="D62" s="96">
+        <v>1.7029006408282701</v>
+      </c>
+      <c r="E62" s="96">
+        <v>23.5318639192297</v>
+      </c>
+      <c r="F62" s="97">
+        <v>0.47662473968170999</v>
+      </c>
+      <c r="G62" s="98">
         <v>1103702.9574130001</v>
       </c>
-      <c r="H62" s="53">
+      <c r="H62" s="99">
         <v>39227.071848793297</v>
       </c>
-      <c r="I62" s="53">
+      <c r="I62" s="99">
         <v>592590.28810461902</v>
       </c>
-      <c r="J62" s="54">
+      <c r="J62" s="100">
         <v>11852.610139872801</v>
       </c>
-      <c r="K62" s="50">
+      <c r="K62" s="101">
         <v>3.4996233140414201</v>
       </c>
-      <c r="L62" s="51">
+      <c r="L62" s="102">
         <v>2.0921708191330199</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="56">
-        <v>58.390970767793704</v>
-      </c>
-      <c r="D63" s="57">
-        <v>2.2455235756793899</v>
-      </c>
-      <c r="E63" s="57">
-        <v>51.8720691523379</v>
-      </c>
-      <c r="F63" s="58">
-        <v>2.0965889284056298</v>
-      </c>
-      <c r="G63" s="59">
+      <c r="C63" s="104">
+        <v>58.232566912858999</v>
+      </c>
+      <c r="D63" s="105">
+        <v>2.2375559983196101</v>
+      </c>
+      <c r="E63" s="105">
+        <v>51.723857806565398</v>
+      </c>
+      <c r="F63" s="106">
+        <v>2.09065068802686</v>
+      </c>
+      <c r="G63" s="107">
         <v>53398933.188041098</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="108">
         <v>1525384.58007487</v>
       </c>
-      <c r="I63" s="60">
+      <c r="I63" s="108">
         <v>51346536.466706403</v>
       </c>
-      <c r="J63" s="61">
+      <c r="J63" s="109">
         <v>1734139.15352162</v>
       </c>
-      <c r="K63" s="57">
+      <c r="K63" s="110">
         <v>3.2812599248645098</v>
       </c>
-      <c r="L63" s="58">
+      <c r="L63" s="111">
         <v>3.7693306021048398</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="49">
-        <v>54.186005308517998</v>
-      </c>
-      <c r="D64" s="50">
-        <v>2.2972675167304399</v>
-      </c>
-      <c r="E64" s="50">
-        <v>23.050346677438402</v>
-      </c>
-      <c r="F64" s="51">
-        <v>0.56749166891009994</v>
-      </c>
-      <c r="G64" s="52">
+      <c r="C64" s="114">
+        <v>54.215158888697999</v>
+      </c>
+      <c r="D64" s="115">
+        <v>2.29797731453993</v>
+      </c>
+      <c r="E64" s="115">
+        <v>23.053725032686899</v>
+      </c>
+      <c r="F64" s="116">
+        <v>0.56763377267533</v>
+      </c>
+      <c r="G64" s="117">
         <v>2383616.5156442798</v>
       </c>
-      <c r="H64" s="53">
+      <c r="H64" s="118">
         <v>103224.390287897</v>
       </c>
-      <c r="I64" s="53">
+      <c r="I64" s="118">
         <v>997705.09311723104</v>
       </c>
-      <c r="J64" s="54">
+      <c r="J64" s="119">
         <v>23507.5661466452</v>
       </c>
-      <c r="K64" s="50">
+      <c r="K64" s="120">
         <v>4.2457009558126204</v>
       </c>
-      <c r="L64" s="51">
+      <c r="L64" s="121">
         <v>2.4148754221296098</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="64">
-        <v>22.886313441952201</v>
-      </c>
-      <c r="D65" s="65">
-        <v>1.3090992615232599</v>
-      </c>
-      <c r="E65" s="65">
-        <v>14.5229031625702</v>
-      </c>
-      <c r="F65" s="66">
-        <v>0.29792545964650002</v>
-      </c>
-      <c r="G65" s="67">
+      <c r="C65" s="122">
+        <v>22.873210181308199</v>
+      </c>
+      <c r="D65" s="123">
+        <v>1.30753907216329</v>
+      </c>
+      <c r="E65" s="123">
+        <v>14.513763703193</v>
+      </c>
+      <c r="F65" s="124">
+        <v>0.29749579518627001</v>
+      </c>
+      <c r="G65" s="125">
         <v>4735341.0003148401</v>
       </c>
-      <c r="H65" s="68">
+      <c r="H65" s="126">
         <v>82423.815100897002</v>
       </c>
-      <c r="I65" s="68">
+      <c r="I65" s="126">
         <v>3263896.45195165</v>
       </c>
-      <c r="J65" s="69">
+      <c r="J65" s="127">
         <v>19397.253199131999</v>
       </c>
-      <c r="K65" s="65">
+      <c r="K65" s="128">
         <v>5.4668051340501798</v>
       </c>
-      <c r="L65" s="66">
+      <c r="L65" s="129">
         <v>2.8936892721296998</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="71">
-        <v>57.897558767627302</v>
-      </c>
-      <c r="D66" s="72">
-        <v>2.2124207173702901</v>
-      </c>
-      <c r="E66" s="72">
-        <v>50.525901252195197</v>
-      </c>
-      <c r="F66" s="73">
-        <v>2.0019403811717602</v>
-      </c>
-      <c r="G66" s="74">
+      <c r="C66" s="131">
+        <v>57.718476835984703</v>
+      </c>
+      <c r="D66" s="132">
+        <v>2.20374324781264</v>
+      </c>
+      <c r="E66" s="132">
+        <v>50.362624292677403</v>
+      </c>
+      <c r="F66" s="133">
+        <v>1.99539915428257</v>
+      </c>
+      <c r="G66" s="134">
         <v>54502636.145454101</v>
       </c>
-      <c r="H66" s="75">
+      <c r="H66" s="135">
         <v>1564611.65192367</v>
       </c>
-      <c r="I66" s="75">
+      <c r="I66" s="135">
         <v>51939126.754811101</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="136">
         <v>1745991.7636614901</v>
       </c>
-      <c r="K66" s="72">
+      <c r="K66" s="137">
         <v>3.2862968708136999</v>
       </c>
-      <c r="L66" s="73">
+      <c r="L66" s="138">
         <v>3.7490072849100402</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="62" t="s">
+      <c r="A67" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="78">
-        <v>74.699039820691397</v>
-      </c>
-      <c r="D67" s="79">
-        <v>1.89999799496039</v>
-      </c>
-      <c r="E67" s="79">
-        <v>33.554686632367002</v>
-      </c>
-      <c r="F67" s="80">
-        <v>0.63573184858263998</v>
-      </c>
-      <c r="G67" s="81">
+      <c r="C67" s="122">
+        <v>74.637435868648595</v>
+      </c>
+      <c r="D67" s="123">
+        <v>1.8989702772768899</v>
+      </c>
+      <c r="E67" s="123">
+        <v>33.538893368055099</v>
+      </c>
+      <c r="F67" s="124">
+        <v>0.63537867363892997</v>
+      </c>
+      <c r="G67" s="125">
         <v>615297.22294902301</v>
       </c>
-      <c r="H67" s="82">
+      <c r="H67" s="126">
         <v>15981.291762843901</v>
       </c>
-      <c r="I67" s="82">
+      <c r="I67" s="126">
         <v>299756.62590151699</v>
       </c>
-      <c r="J67" s="83">
+      <c r="J67" s="127">
         <v>6318.3764824045002</v>
       </c>
-      <c r="K67" s="79">
+      <c r="K67" s="128">
         <v>2.5379156494075601</v>
       </c>
-      <c r="L67" s="80">
+      <c r="L67" s="129">
         <v>2.1400159900093301</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="64">
-        <v>35.363667441484402</v>
-      </c>
-      <c r="D68" s="65">
-        <v>1.51606712225633</v>
-      </c>
-      <c r="E68" s="65">
-        <v>2.9548901818939401</v>
-      </c>
-      <c r="F68" s="66">
-        <v>0.11333147544742</v>
-      </c>
-      <c r="G68" s="67">
+      <c r="C68" s="122">
+        <v>35.377531355875497</v>
+      </c>
+      <c r="D68" s="123">
+        <v>1.5163520065376099</v>
+      </c>
+      <c r="E68" s="123">
+        <v>2.9546612841799802</v>
+      </c>
+      <c r="F68" s="124">
+        <v>0.11330808955141999</v>
+      </c>
+      <c r="G68" s="125">
         <v>417760.196137705</v>
       </c>
-      <c r="H68" s="68">
+      <c r="H68" s="126">
         <v>20089.015896853001</v>
       </c>
-      <c r="I68" s="68">
+      <c r="I68" s="126">
         <v>37257.188761380297</v>
       </c>
-      <c r="J68" s="69">
+      <c r="J68" s="127">
         <v>1618.4310084384399</v>
       </c>
-      <c r="K68" s="65">
+      <c r="K68" s="128">
         <v>4.8255281701036701</v>
       </c>
-      <c r="L68" s="66">
+      <c r="L68" s="129">
         <v>4.3732707937223303</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B69" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="64">
-        <v>27.273162956051301</v>
-      </c>
-      <c r="D69" s="65">
-        <v>0.74559879161284004</v>
-      </c>
-      <c r="E69" s="65">
-        <v>1.8225557945731401</v>
-      </c>
-      <c r="F69" s="66">
-        <v>-4.1309642905300002E-2</v>
-      </c>
-      <c r="G69" s="67">
+      <c r="C69" s="122">
+        <v>27.3295176470162</v>
+      </c>
+      <c r="D69" s="123">
+        <v>0.75054580011059002</v>
+      </c>
+      <c r="E69" s="123">
+        <v>1.8422280467567</v>
+      </c>
+      <c r="F69" s="124">
+        <v>-4.1302370769299997E-2</v>
+      </c>
+      <c r="G69" s="125">
         <v>72793.918420763293</v>
       </c>
-      <c r="H69" s="68">
+      <c r="H69" s="126">
         <v>2138.1350130799201</v>
       </c>
-      <c r="I69" s="68">
+      <c r="I69" s="126">
         <v>4868.5808406246797</v>
       </c>
-      <c r="J69" s="69">
+      <c r="J69" s="127">
         <v>-64.542951375607998</v>
       </c>
-      <c r="K69" s="65">
+      <c r="K69" s="128">
         <v>2.6196781544193302</v>
       </c>
-      <c r="L69" s="66">
+      <c r="L69" s="129">
         <v>-3.4843022781727</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="62" t="s">
+      <c r="A70" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="64">
-        <v>40.009678554348298</v>
-      </c>
-      <c r="D70" s="65">
-        <v>2.1534942722214998</v>
-      </c>
-      <c r="E70" s="65">
-        <v>5.3328896501961998</v>
-      </c>
-      <c r="F70" s="66">
-        <v>0.1125494660241</v>
-      </c>
-      <c r="G70" s="67">
+      <c r="C70" s="122">
+        <v>39.783296454315703</v>
+      </c>
+      <c r="D70" s="123">
+        <v>2.1509981414331101</v>
+      </c>
+      <c r="E70" s="123">
+        <v>5.3235369315319501</v>
+      </c>
+      <c r="F70" s="124">
+        <v>0.11254946603104</v>
+      </c>
+      <c r="G70" s="125">
         <v>70611.408381306304</v>
       </c>
-      <c r="H70" s="68">
+      <c r="H70" s="126">
         <v>2994.16807779389</v>
       </c>
-      <c r="I70" s="68">
+      <c r="I70" s="126">
         <v>8076.3720995988097</v>
       </c>
-      <c r="J70" s="69">
+      <c r="J70" s="127">
         <v>111.733846462684</v>
       </c>
-      <c r="K70" s="65">
+      <c r="K70" s="128">
         <v>4.39785968082208</v>
       </c>
-      <c r="L70" s="66">
+      <c r="L70" s="129">
         <v>1.6913103497097299</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="62" t="s">
+      <c r="A71" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="64">
-        <v>21.994263844311199</v>
-      </c>
-      <c r="D71" s="65">
-        <v>1.5883842270299</v>
-      </c>
-      <c r="E71" s="65">
-        <v>3.1246572854016401</v>
-      </c>
-      <c r="F71" s="66">
-        <v>0.16500115331446999</v>
-      </c>
-      <c r="G71" s="67">
+      <c r="C71" s="122">
+        <v>22.004992860677699</v>
+      </c>
+      <c r="D71" s="123">
+        <v>1.58866737508422</v>
+      </c>
+      <c r="E71" s="123">
+        <v>3.1247971441214299</v>
+      </c>
+      <c r="F71" s="124">
+        <v>0.16501929081788999</v>
+      </c>
+      <c r="G71" s="125">
         <v>147295.77622615601</v>
       </c>
-      <c r="H71" s="68">
+      <c r="H71" s="126">
         <v>10872.7070943935</v>
       </c>
-      <c r="I71" s="68">
+      <c r="I71" s="126">
         <v>20887.055569903201</v>
       </c>
-      <c r="J71" s="69">
+      <c r="J71" s="127">
         <v>1031.02594497268</v>
       </c>
-      <c r="K71" s="65">
+      <c r="K71" s="128">
         <v>7.5481662872294297</v>
       </c>
-      <c r="L71" s="66">
+      <c r="L71" s="129">
         <v>5.1386173238848096</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="48" t="s">
+      <c r="B72" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="64">
-        <v>42.852049544658499</v>
-      </c>
-      <c r="D72" s="65">
-        <v>0.56622410418588998</v>
-      </c>
-      <c r="E72" s="65">
-        <v>1.1597346799107899</v>
-      </c>
-      <c r="F72" s="66">
-        <v>-2.92527188911E-2</v>
-      </c>
-      <c r="G72" s="67">
+      <c r="C72" s="122">
+        <v>42.855275011175003</v>
+      </c>
+      <c r="D72" s="123">
+        <v>0.56562292202752995</v>
+      </c>
+      <c r="E72" s="123">
+        <v>1.1597015794610199</v>
+      </c>
+      <c r="F72" s="124">
+        <v>-2.9249007347700001E-2</v>
+      </c>
+      <c r="G72" s="125">
         <v>58497.5775537503</v>
       </c>
-      <c r="H72" s="68">
+      <c r="H72" s="126">
         <v>1398.5206955054</v>
       </c>
-      <c r="I72" s="68">
+      <c r="I72" s="126">
         <v>1649.20923165064</v>
       </c>
-      <c r="J72" s="69">
+      <c r="J72" s="127">
         <v>-64.536312873585004</v>
       </c>
-      <c r="K72" s="65">
+      <c r="K72" s="128">
         <v>1.92898063016232</v>
       </c>
-      <c r="L72" s="66">
+      <c r="L72" s="129">
         <v>-3.6285583150638998</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="48" t="s">
+      <c r="B73" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="64">
-        <v>97.151165736758699</v>
-      </c>
-      <c r="D73" s="65">
-        <v>2.2282556093560002</v>
-      </c>
-      <c r="E73" s="65">
-        <v>83.559478935914598</v>
-      </c>
-      <c r="F73" s="66">
-        <v>1.8317772467423099</v>
-      </c>
-      <c r="G73" s="67">
+      <c r="C73" s="122">
+        <v>97.151030141754006</v>
+      </c>
+      <c r="D73" s="123">
+        <v>2.2296992882870899</v>
+      </c>
+      <c r="E73" s="123">
+        <v>83.576933743048897</v>
+      </c>
+      <c r="F73" s="124">
+        <v>1.83031753200812</v>
+      </c>
+      <c r="G73" s="125">
         <v>614201.53842931602</v>
       </c>
-      <c r="H73" s="68">
+      <c r="H73" s="126">
         <v>13547.723479873701</v>
       </c>
-      <c r="I73" s="68">
+      <c r="I73" s="126">
         <v>548932.83720494597</v>
       </c>
-      <c r="J73" s="69">
+      <c r="J73" s="127">
         <v>10159.0637094711</v>
       </c>
-      <c r="K73" s="65">
+      <c r="K73" s="128">
         <v>2.1640566381752002</v>
       </c>
-      <c r="L73" s="66">
+      <c r="L73" s="129">
         <v>1.94599556927998</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="64">
-        <v>38.914267367508799</v>
-      </c>
-      <c r="D74" s="65">
-        <v>1.78745716461736</v>
-      </c>
-      <c r="E74" s="65">
-        <v>3.1082960050188402</v>
-      </c>
-      <c r="F74" s="66">
-        <v>0.16197880347702001</v>
-      </c>
-      <c r="G74" s="67">
+      <c r="C74" s="122">
+        <v>36.304593038702897</v>
+      </c>
+      <c r="D74" s="123">
+        <v>1.68678413819573</v>
+      </c>
+      <c r="E74" s="123">
+        <v>2.8998532398674901</v>
+      </c>
+      <c r="F74" s="124">
+        <v>0.15220993976815</v>
+      </c>
+      <c r="G74" s="125">
         <v>129309.295912931</v>
       </c>
-      <c r="H74" s="68">
+      <c r="H74" s="126">
         <v>6055.8203997488999</v>
       </c>
-      <c r="I74" s="68">
+      <c r="I74" s="126">
         <v>10523.1915314008</v>
       </c>
-      <c r="J74" s="69">
+      <c r="J74" s="127">
         <v>624.96275183992202</v>
       </c>
-      <c r="K74" s="65">
+      <c r="K74" s="128">
         <v>4.49856880274569</v>
       </c>
-      <c r="L74" s="66">
+      <c r="L74" s="129">
         <v>5.6989449055346597</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="103" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="71">
-        <v>83.781529054814698</v>
-      </c>
-      <c r="D75" s="72">
-        <v>3.2707276962651899</v>
-      </c>
-      <c r="E75" s="72">
-        <v>6.9594262496198098</v>
-      </c>
-      <c r="F75" s="73">
-        <v>0.16925093903735999</v>
-      </c>
-      <c r="G75" s="74">
+      <c r="C75" s="104">
+        <v>83.670313452022</v>
+      </c>
+      <c r="D75" s="105">
+        <v>3.26941128570739</v>
+      </c>
+      <c r="E75" s="105">
+        <v>6.95738782058773</v>
+      </c>
+      <c r="F75" s="106">
+        <v>0.16917607965852</v>
+      </c>
+      <c r="G75" s="107">
         <v>71056.0315304658</v>
       </c>
-      <c r="H75" s="75">
+      <c r="H75" s="108">
         <v>2344.6392986737501</v>
       </c>
-      <c r="I75" s="75">
+      <c r="I75" s="108">
         <v>4950.7215819058501</v>
       </c>
-      <c r="J75" s="76">
+      <c r="J75" s="109">
         <v>122.444877840985</v>
       </c>
-      <c r="K75" s="72">
+      <c r="K75" s="110">
         <v>3.4530615736008898</v>
       </c>
-      <c r="L75" s="73">
+      <c r="L75" s="111">
         <v>2.4572915599825502</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="78">
-        <v>80.727648570412697</v>
-      </c>
-      <c r="D76" s="79">
-        <v>1.8546398984974</v>
-      </c>
-      <c r="E76" s="79">
-        <v>50.596974378579297</v>
-      </c>
-      <c r="F76" s="80">
-        <v>0.51174939319942003</v>
-      </c>
-      <c r="G76" s="81">
+      <c r="C76" s="140">
+        <v>80.320759731983898</v>
+      </c>
+      <c r="D76" s="141">
+        <v>1.8499982367574901</v>
+      </c>
+      <c r="E76" s="141">
+        <v>50.324050389171298</v>
+      </c>
+      <c r="F76" s="142">
+        <v>0.51010732765171996</v>
+      </c>
+      <c r="G76" s="143">
         <v>2874960.5508562201</v>
       </c>
-      <c r="H76" s="82">
+      <c r="H76" s="144">
         <v>43081.328147297303</v>
       </c>
-      <c r="I76" s="82">
+      <c r="I76" s="144">
         <v>1864202.1092180701</v>
       </c>
-      <c r="J76" s="83">
+      <c r="J76" s="145">
         <v>12438.076507481401</v>
       </c>
-      <c r="K76" s="79">
+      <c r="K76" s="146">
         <v>4.9133310010682196</v>
       </c>
-      <c r="L76" s="80">
+      <c r="L76" s="147">
         <v>2.6998375482364798</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B77" s="48" t="s">
+      <c r="B77" s="103" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="64">
-        <v>53.477081704882501</v>
-      </c>
-      <c r="D77" s="65">
-        <v>2.36354050222997</v>
-      </c>
-      <c r="E77" s="65">
-        <v>25.852849002939699</v>
-      </c>
-      <c r="F77" s="66">
-        <v>0.65814987134750003</v>
-      </c>
-      <c r="G77" s="67">
+      <c r="C77" s="122">
+        <v>53.537130838403897</v>
+      </c>
+      <c r="D77" s="123">
+        <v>2.3655246628761399</v>
+      </c>
+      <c r="E77" s="123">
+        <v>25.863800179567502</v>
+      </c>
+      <c r="F77" s="124">
+        <v>0.65850613377370004</v>
+      </c>
+      <c r="G77" s="125">
         <v>1540142.5294571701</v>
       </c>
-      <c r="H77" s="68">
+      <c r="H77" s="126">
         <v>70305.5393455718</v>
       </c>
-      <c r="I77" s="68">
+      <c r="I77" s="126">
         <v>730130.252748381</v>
       </c>
-      <c r="J77" s="69">
+      <c r="J77" s="127">
         <v>17439.159955196799</v>
       </c>
-      <c r="K77" s="65">
+      <c r="K77" s="128">
         <v>4.4470380273032202</v>
       </c>
-      <c r="L77" s="66">
+      <c r="L77" s="129">
         <v>2.4463404321988702</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
+      <c r="A78" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="64">
-        <v>136.117668212643</v>
-      </c>
-      <c r="D78" s="65">
-        <v>4.7886584916826997</v>
-      </c>
-      <c r="E78" s="65">
-        <v>145.48010086168</v>
-      </c>
-      <c r="F78" s="66">
-        <v>4.4438379149111196</v>
-      </c>
-      <c r="G78" s="67">
+      <c r="C78" s="122">
+        <v>136.10656350179201</v>
+      </c>
+      <c r="D78" s="123">
+        <v>4.7880591191078699</v>
+      </c>
+      <c r="E78" s="123">
+        <v>145.477003359441</v>
+      </c>
+      <c r="F78" s="124">
+        <v>4.44373742224598</v>
+      </c>
+      <c r="G78" s="125">
         <v>22614103.480012499</v>
       </c>
-      <c r="H78" s="68">
+      <c r="H78" s="126">
         <v>779935.903648493</v>
       </c>
-      <c r="I78" s="68">
+      <c r="I78" s="126">
         <v>25135268.7084709</v>
       </c>
-      <c r="J78" s="69">
+      <c r="J78" s="127">
         <v>773402.30944887595</v>
       </c>
-      <c r="K78" s="65">
+      <c r="K78" s="128">
         <v>3.5787832368909598</v>
       </c>
-      <c r="L78" s="66">
+      <c r="L78" s="129">
         <v>3.16335678108014</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="62" t="s">
+      <c r="A79" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="71">
-        <v>79.615628956223503</v>
-      </c>
-      <c r="D79" s="72">
-        <v>2.3309935148049301</v>
-      </c>
-      <c r="E79" s="72">
-        <v>79.954882834492395</v>
-      </c>
-      <c r="F79" s="73">
-        <v>2.8403203370113501</v>
-      </c>
-      <c r="G79" s="74">
+      <c r="C79" s="131">
+        <v>79.257401399482006</v>
+      </c>
+      <c r="D79" s="132">
+        <v>2.31992626680253</v>
+      </c>
+      <c r="E79" s="132">
+        <v>79.580043805984602</v>
+      </c>
+      <c r="F79" s="133">
+        <v>2.8275186840268098</v>
+      </c>
+      <c r="G79" s="134">
         <v>43237368.387037002</v>
       </c>
-      <c r="H79" s="75">
+      <c r="H79" s="135">
         <v>1245871.5255722399</v>
       </c>
-      <c r="I79" s="75">
+      <c r="I79" s="135">
         <v>44829118.4908932</v>
       </c>
-      <c r="J79" s="76">
+      <c r="J79" s="136">
         <v>1628750.5454281799</v>
       </c>
-      <c r="K79" s="72">
+      <c r="K79" s="137">
         <v>3.0134095562729901</v>
       </c>
-      <c r="L79" s="73">
+      <c r="L79" s="138">
         <v>3.7487616886763</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
+      <c r="A80" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="78">
-        <v>23.336470585291401</v>
-      </c>
-      <c r="D80" s="79">
-        <v>2.5019134270420702</v>
-      </c>
-      <c r="E80" s="79">
-        <v>3.9461245286879101</v>
-      </c>
-      <c r="F80" s="80">
-        <v>0.11851780333756</v>
-      </c>
-      <c r="G80" s="81">
+      <c r="C80" s="122">
+        <v>21.414846682548301</v>
+      </c>
+      <c r="D80" s="123">
+        <v>2.3304134891119999</v>
+      </c>
+      <c r="E80" s="123">
+        <v>3.61897543168807</v>
+      </c>
+      <c r="F80" s="124">
+        <v>0.11000467626141</v>
+      </c>
+      <c r="G80" s="125">
         <v>53376.168426364799</v>
       </c>
-      <c r="H80" s="82">
+      <c r="H80" s="126">
         <v>6479.5082291524895</v>
       </c>
-      <c r="I80" s="82">
+      <c r="I80" s="126">
         <v>8490.4526051462908</v>
       </c>
-      <c r="J80" s="83">
+      <c r="J80" s="127">
         <v>300.30412687618502</v>
       </c>
-      <c r="K80" s="79">
+      <c r="K80" s="128">
         <v>11.016083078642501</v>
       </c>
-      <c r="L80" s="80">
+      <c r="L80" s="129">
         <v>3.0412630763752801</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="62" t="s">
+      <c r="A81" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="48" t="s">
+      <c r="B81" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="64">
-        <v>39.548100575138101</v>
-      </c>
-      <c r="D81" s="65">
-        <v>2.94478042878732</v>
-      </c>
-      <c r="E81" s="65">
-        <v>25.9797204988846</v>
-      </c>
-      <c r="F81" s="66">
-        <v>1.56563398568982</v>
-      </c>
-      <c r="G81" s="67">
+      <c r="C81" s="122">
+        <v>39.495737510191901</v>
+      </c>
+      <c r="D81" s="123">
+        <v>2.9344575808661499</v>
+      </c>
+      <c r="E81" s="123">
+        <v>25.943685040812401</v>
+      </c>
+      <c r="F81" s="124">
+        <v>1.5743552836313</v>
+      </c>
+      <c r="G81" s="125">
         <v>1063689.6115458601</v>
       </c>
-      <c r="H81" s="68">
+      <c r="H81" s="126">
         <v>85903.937099901901</v>
       </c>
-      <c r="I81" s="68">
+      <c r="I81" s="126">
         <v>687990.96797804604</v>
       </c>
-      <c r="J81" s="69">
+      <c r="J81" s="127">
         <v>48754.330251442203</v>
       </c>
-      <c r="K81" s="65">
+      <c r="K81" s="128">
         <v>7.3678619457292003</v>
       </c>
-      <c r="L81" s="66">
+      <c r="L81" s="129">
         <v>6.8381018502078597</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="64">
-        <v>51.729121709032903</v>
-      </c>
-      <c r="D82" s="65">
-        <v>1.59667699324169</v>
-      </c>
-      <c r="E82" s="65">
-        <v>26.535221090695799</v>
-      </c>
-      <c r="F82" s="66">
-        <v>0.54186603386525001</v>
-      </c>
-      <c r="G82" s="67">
+      <c r="C82" s="122">
+        <v>51.737500293457401</v>
+      </c>
+      <c r="D82" s="123">
+        <v>1.59723858666848</v>
+      </c>
+      <c r="E82" s="123">
+        <v>26.540809550899301</v>
+      </c>
+      <c r="F82" s="124">
+        <v>0.54182650858484005</v>
+      </c>
+      <c r="G82" s="125">
         <v>1050326.78898663</v>
       </c>
-      <c r="H82" s="68">
+      <c r="H82" s="126">
         <v>32747.563619640801</v>
       </c>
-      <c r="I82" s="68">
+      <c r="I82" s="126">
         <v>584099.83549947303</v>
       </c>
-      <c r="J82" s="69">
+      <c r="J82" s="127">
         <v>11552.3060129966</v>
       </c>
-      <c r="K82" s="65">
+      <c r="K82" s="128">
         <v>3.1205424487846698</v>
       </c>
-      <c r="L82" s="66">
+      <c r="L82" s="129">
         <v>2.0782540190715499</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="103" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="71">
-        <v>59.592101871905797</v>
-      </c>
-      <c r="D83" s="72">
-        <v>2.1826203303790699</v>
-      </c>
-      <c r="E83" s="72">
-        <v>53.4805445046985</v>
-      </c>
-      <c r="F83" s="73">
-        <v>2.1433529145828398</v>
-      </c>
-      <c r="G83" s="74">
+      <c r="C83" s="104">
+        <v>59.429062545774102</v>
+      </c>
+      <c r="D83" s="105">
+        <v>2.1748387170726202</v>
+      </c>
+      <c r="E83" s="105">
+        <v>53.329095750441901</v>
+      </c>
+      <c r="F83" s="106">
+        <v>2.1361639387929299</v>
+      </c>
+      <c r="G83" s="107">
         <v>52335243.5764952</v>
       </c>
-      <c r="H83" s="75">
+      <c r="H83" s="108">
         <v>1439480.6429749699</v>
       </c>
-      <c r="I83" s="75">
+      <c r="I83" s="108">
         <v>50658545.498728402</v>
       </c>
-      <c r="J83" s="76">
+      <c r="J83" s="109">
         <v>1685384.82327018</v>
       </c>
-      <c r="K83" s="72">
+      <c r="K83" s="110">
         <v>3.1836262936939002</v>
       </c>
-      <c r="L83" s="73">
+      <c r="L83" s="111">
         <v>3.72201777255543</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="139" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="78">
-        <v>67.355732464170302</v>
-      </c>
-      <c r="D84" s="79">
-        <v>1.1369557268106301</v>
-      </c>
-      <c r="E84" s="79">
-        <v>3.1576210326410599</v>
-      </c>
-      <c r="F84" s="80">
-        <v>7.674200618865E-2</v>
-      </c>
-      <c r="G84" s="81">
+      <c r="C84" s="140">
+        <v>67.193430524175298</v>
+      </c>
+      <c r="D84" s="141">
+        <v>1.1357992365018901</v>
+      </c>
+      <c r="E84" s="141">
+        <v>3.1503276088177898</v>
+      </c>
+      <c r="F84" s="142">
+        <v>7.6787802356090007E-2</v>
+      </c>
+      <c r="G84" s="143">
         <v>147398.74501030901</v>
       </c>
-      <c r="H84" s="82">
+      <c r="H84" s="144">
         <v>3207.1601805475302</v>
       </c>
-      <c r="I84" s="82">
+      <c r="I84" s="144">
         <v>6295.1889662400399</v>
       </c>
-      <c r="J84" s="83">
+      <c r="J84" s="145">
         <v>186.06744027675799</v>
       </c>
-      <c r="K84" s="79">
+      <c r="K84" s="146">
         <v>1.9965820056155601</v>
       </c>
-      <c r="L84" s="80">
+      <c r="L84" s="147">
         <v>3.5296139169619098</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="62" t="s">
+      <c r="A85" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="148" t="s">
         <v>151</v>
       </c>
-      <c r="C85" s="64">
-        <v>7.9071365101888</v>
-      </c>
-      <c r="D85" s="65">
-        <v>3.6226851339529999E-2</v>
-      </c>
-      <c r="E85" s="65">
-        <v>0.66458927590220995</v>
-      </c>
-      <c r="F85" s="66">
-        <v>2.573649327E-5</v>
-      </c>
-      <c r="G85" s="67">
+      <c r="C85" s="122">
+        <v>7.9071365083109804</v>
+      </c>
+      <c r="D85" s="123">
+        <v>3.6226851330919997E-2</v>
+      </c>
+      <c r="E85" s="123">
+        <v>0.66458927574437998</v>
+      </c>
+      <c r="F85" s="124">
+        <v>2.573649326E-5</v>
+      </c>
+      <c r="G85" s="125">
         <v>1592.14526705648</v>
       </c>
-      <c r="H85" s="68">
+      <c r="H85" s="126">
         <v>7.2944750386264996</v>
       </c>
-      <c r="I85" s="68">
+      <c r="I85" s="126">
         <v>133.81869262036099</v>
       </c>
-      <c r="J85" s="69">
+      <c r="J85" s="127">
         <v>5.1821839546100004E-3</v>
       </c>
-      <c r="K85" s="65">
+      <c r="K85" s="128">
         <v>0.46050143007972</v>
       </c>
-      <c r="L85" s="66">
+      <c r="L85" s="129">
         <v>4.4928122358499998E-3</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="48" t="s">
+      <c r="B86" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="64">
-        <v>30.201802439057602</v>
-      </c>
-      <c r="D86" s="65">
-        <v>1.71612474529929</v>
-      </c>
-      <c r="E86" s="65">
-        <v>2.9551993201869302</v>
-      </c>
-      <c r="F86" s="66">
-        <v>9.9157069365310005E-2</v>
-      </c>
-      <c r="G86" s="67">
+      <c r="C86" s="122">
+        <v>29.811977193275201</v>
+      </c>
+      <c r="D86" s="123">
+        <v>1.69436417064458</v>
+      </c>
+      <c r="E86" s="123">
+        <v>2.91696642324872</v>
+      </c>
+      <c r="F86" s="124">
+        <v>9.763976680474E-2</v>
+      </c>
+      <c r="G86" s="125">
         <v>475541.534030009</v>
       </c>
-      <c r="H86" s="68">
+      <c r="H86" s="126">
         <v>26919.7889197513</v>
       </c>
-      <c r="I86" s="68">
+      <c r="I86" s="126">
         <v>47571.614352336197</v>
       </c>
-      <c r="J86" s="69">
+      <c r="J86" s="127">
         <v>1592.77970627791</v>
       </c>
-      <c r="K86" s="65">
+      <c r="K86" s="128">
         <v>5.7011059288720602</v>
       </c>
-      <c r="L86" s="66">
+      <c r="L86" s="129">
         <v>3.6278835437466701</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="62" t="s">
+      <c r="A87" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="48" t="s">
+      <c r="B87" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="64">
-        <v>19.885477817924102</v>
-      </c>
-      <c r="D87" s="65">
-        <v>1.1468176235655401</v>
-      </c>
-      <c r="E87" s="65">
-        <v>6.3550173429372201</v>
-      </c>
-      <c r="F87" s="66">
-        <v>0.19318210618244</v>
-      </c>
-      <c r="G87" s="67">
+      <c r="C87" s="122">
+        <v>19.830030510869001</v>
+      </c>
+      <c r="D87" s="123">
+        <v>1.1436453611689801</v>
+      </c>
+      <c r="E87" s="123">
+        <v>6.3371261419895104</v>
+      </c>
+      <c r="F87" s="124">
+        <v>0.19265479393882001</v>
+      </c>
+      <c r="G87" s="125">
         <v>849474.04394105705</v>
       </c>
-      <c r="H87" s="68">
+      <c r="H87" s="126">
         <v>49317.507008437802</v>
       </c>
-      <c r="I87" s="68">
+      <c r="I87" s="126">
         <v>270496.69440213701</v>
       </c>
-      <c r="J87" s="69">
+      <c r="J87" s="127">
         <v>8266.9812132538409</v>
       </c>
-      <c r="K87" s="65">
+      <c r="K87" s="128">
         <v>5.9434374898625002</v>
       </c>
-      <c r="L87" s="66">
+      <c r="L87" s="129">
         <v>2.9695542475760099</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="62" t="s">
+      <c r="A88" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="64">
-        <v>127.39037061764201</v>
-      </c>
-      <c r="D88" s="65">
-        <v>2.1509471868947201</v>
-      </c>
-      <c r="E88" s="65">
-        <v>143.39654493167899</v>
-      </c>
-      <c r="F88" s="66">
-        <v>2.3926318041707799</v>
-      </c>
-      <c r="G88" s="67">
+      <c r="C88" s="122">
+        <v>127.385916919173</v>
+      </c>
+      <c r="D88" s="123">
+        <v>2.1508839912903199</v>
+      </c>
+      <c r="E88" s="123">
+        <v>143.392105445943</v>
+      </c>
+      <c r="F88" s="124">
+        <v>2.3925575681186699</v>
+      </c>
+      <c r="G88" s="125">
         <v>476812.89511249698</v>
       </c>
-      <c r="H88" s="68">
+      <c r="H88" s="126">
         <v>9058.6477861589701</v>
       </c>
-      <c r="I88" s="68">
+      <c r="I88" s="126">
         <v>536881.66936499695</v>
       </c>
-      <c r="J88" s="69">
+      <c r="J88" s="127">
         <v>10070.4764943916</v>
       </c>
-      <c r="K88" s="65">
+      <c r="K88" s="128">
         <v>1.82638582337152</v>
       </c>
-      <c r="L88" s="66">
+      <c r="L88" s="129">
         <v>1.95324293575895</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C89" s="64">
-        <v>32.477366259551196</v>
-      </c>
-      <c r="D89" s="65">
-        <v>2.3002406787352898</v>
-      </c>
-      <c r="E89" s="65">
-        <v>19.156832042582302</v>
-      </c>
-      <c r="F89" s="66">
-        <v>0.76683101440268997</v>
-      </c>
-      <c r="G89" s="67">
+      <c r="C89" s="122">
+        <v>32.492983242647398</v>
+      </c>
+      <c r="D89" s="123">
+        <v>2.3017767188115701</v>
+      </c>
+      <c r="E89" s="123">
+        <v>19.160613506610002</v>
+      </c>
+      <c r="F89" s="124">
+        <v>0.76701139561818998</v>
+      </c>
+      <c r="G89" s="125">
         <v>7070792.6684670597</v>
       </c>
-      <c r="H89" s="68">
+      <c r="H89" s="126">
         <v>202535.838960747</v>
       </c>
-      <c r="I89" s="68">
+      <c r="I89" s="126">
         <v>4400248.3571435902</v>
       </c>
-      <c r="J89" s="69">
+      <c r="J89" s="127">
         <v>65820.566009610702</v>
       </c>
-      <c r="K89" s="65">
+      <c r="K89" s="128">
         <v>5.1669112621528699</v>
       </c>
-      <c r="L89" s="66">
+      <c r="L89" s="129">
         <v>3.6401765196380298</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="62" t="s">
+      <c r="A90" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="70" t="s">
+      <c r="B90" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="C90" s="71">
-        <v>87.519202315125796</v>
-      </c>
-      <c r="D90" s="72">
-        <v>2.4916654231296498</v>
-      </c>
-      <c r="E90" s="72">
-        <v>87.671644399434797</v>
-      </c>
-      <c r="F90" s="73">
-        <v>3.04981826117104</v>
-      </c>
-      <c r="G90" s="74">
+      <c r="C90" s="131">
+        <v>87.048570195059298</v>
+      </c>
+      <c r="D90" s="132">
+        <v>2.4780273275127001</v>
+      </c>
+      <c r="E90" s="132">
+        <v>87.188222513153406</v>
+      </c>
+      <c r="F90" s="133">
+        <v>3.0356362595345101</v>
+      </c>
+      <c r="G90" s="134">
         <v>45481024.1136261</v>
       </c>
-      <c r="H90" s="75">
+      <c r="H90" s="135">
         <v>1273565.41459299</v>
       </c>
-      <c r="I90" s="75">
+      <c r="I90" s="135">
         <v>46677499.411889099</v>
       </c>
-      <c r="J90" s="76">
+      <c r="J90" s="136">
         <v>1660054.8876155</v>
       </c>
-      <c r="K90" s="72">
+      <c r="K90" s="137">
         <v>3.0542474448693202</v>
       </c>
-      <c r="L90" s="73">
+      <c r="L90" s="138">
         <v>3.7791801413514201</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="62" t="s">
+      <c r="A91" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="78">
-        <v>53.999011197186697</v>
-      </c>
-      <c r="D91" s="79">
-        <v>1.58375887331684</v>
-      </c>
-      <c r="E91" s="79">
-        <v>4.4498246874321401</v>
-      </c>
-      <c r="F91" s="80">
-        <v>0.13757732377553</v>
-      </c>
-      <c r="G91" s="81">
+      <c r="C91" s="122">
+        <v>54.027179064617499</v>
+      </c>
+      <c r="D91" s="123">
+        <v>1.5874263165901199</v>
+      </c>
+      <c r="E91" s="123">
+        <v>4.4636759945180602</v>
+      </c>
+      <c r="F91" s="124">
+        <v>0.13760937853460001</v>
+      </c>
+      <c r="G91" s="125">
         <v>214398.75226474201</v>
       </c>
-      <c r="H91" s="82">
+      <c r="H91" s="126">
         <v>7237.7598744215102</v>
       </c>
-      <c r="I91" s="82">
+      <c r="I91" s="126">
         <v>15758.2803456291</v>
       </c>
-      <c r="J91" s="83">
+      <c r="J91" s="127">
         <v>512.77818093853898</v>
       </c>
-      <c r="K91" s="79">
+      <c r="K91" s="128">
         <v>3.22751798383598</v>
       </c>
-      <c r="L91" s="80">
+      <c r="L91" s="129">
         <v>4.08106749083721</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="64">
-        <v>13.1345882257491</v>
-      </c>
-      <c r="D92" s="65">
-        <v>0.82470694135458</v>
-      </c>
-      <c r="E92" s="65">
-        <v>0.80040710122765002</v>
-      </c>
-      <c r="F92" s="66">
-        <v>2.0347723553319999E-2</v>
-      </c>
-      <c r="G92" s="67">
+      <c r="C92" s="122">
+        <v>12.8863401642838</v>
+      </c>
+      <c r="D92" s="123">
+        <v>0.80980775755065004</v>
+      </c>
+      <c r="E92" s="123">
+        <v>0.78549231102302997</v>
+      </c>
+      <c r="F92" s="124">
+        <v>1.9940703340639999E-2</v>
+      </c>
+      <c r="G92" s="125">
         <v>62612.594493663099</v>
       </c>
-      <c r="H92" s="68">
+      <c r="H92" s="126">
         <v>3954.4943742115402</v>
       </c>
-      <c r="I92" s="68">
+      <c r="I92" s="126">
         <v>3348.1198285922201</v>
       </c>
-      <c r="J92" s="69">
+      <c r="J92" s="127">
         <v>95.069646893458298</v>
       </c>
-      <c r="K92" s="65">
+      <c r="K92" s="128">
         <v>6.4088034503275999</v>
       </c>
-      <c r="L92" s="66">
+      <c r="L92" s="129">
         <v>3.8683507685321099</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="62" t="s">
+      <c r="A93" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="103" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="64">
-        <v>2041.7134316353099</v>
-      </c>
-      <c r="D93" s="65">
-        <v>28.382763640546901</v>
-      </c>
-      <c r="E93" s="65">
-        <v>1727.8521491517399</v>
-      </c>
-      <c r="F93" s="66">
-        <v>37.470195686776698</v>
-      </c>
-      <c r="G93" s="67">
+      <c r="C93" s="122">
+        <v>2049.9254089958799</v>
+      </c>
+      <c r="D93" s="123">
+        <v>28.492123186939299</v>
+      </c>
+      <c r="E93" s="123">
+        <v>1735.12907791562</v>
+      </c>
+      <c r="F93" s="124">
+        <v>37.6377039114304</v>
+      </c>
+      <c r="G93" s="125">
         <v>338019.961329268</v>
       </c>
-      <c r="H93" s="68">
+      <c r="H93" s="126">
         <v>5020.7447873947303</v>
       </c>
-      <c r="I93" s="68">
+      <c r="I93" s="126">
         <v>285671.01748942002</v>
       </c>
-      <c r="J93" s="69">
+      <c r="J93" s="127">
         <v>6192.92474615845</v>
       </c>
-      <c r="K93" s="65">
+      <c r="K93" s="128">
         <v>1.5036842087493301</v>
       </c>
-      <c r="L93" s="66">
+      <c r="L93" s="129">
         <v>2.2139923283576399</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="62" t="s">
+      <c r="A94" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="64">
-        <v>377.41589086290497</v>
-      </c>
-      <c r="D94" s="65">
-        <v>3.1294881724905999</v>
-      </c>
-      <c r="E94" s="65">
-        <v>256.63075331637998</v>
-      </c>
-      <c r="F94" s="66">
-        <v>6.0675139733160001E-2</v>
-      </c>
-      <c r="G94" s="67">
+      <c r="C94" s="122">
+        <v>375.84251156873199</v>
+      </c>
+      <c r="D94" s="123">
+        <v>3.1182827886084201</v>
+      </c>
+      <c r="E94" s="123">
+        <v>255.508818234774</v>
+      </c>
+      <c r="F94" s="124">
+        <v>6.035632420525E-2</v>
+      </c>
+      <c r="G94" s="125">
         <v>2087303.4530410799</v>
       </c>
-      <c r="H94" s="68">
+      <c r="H94" s="126">
         <v>5107.2693045811802</v>
       </c>
-      <c r="I94" s="68">
+      <c r="I94" s="126">
         <v>1385341.63284584</v>
       </c>
-      <c r="J94" s="69">
+      <c r="J94" s="127">
         <v>130.06267925722301</v>
       </c>
-      <c r="K94" s="65">
+      <c r="K94" s="128">
         <v>4.8792563887493197</v>
       </c>
-      <c r="L94" s="66">
+      <c r="L94" s="129">
         <v>2.1870440972238798</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="62" t="s">
+      <c r="A95" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="64">
-        <v>42.017371105770998</v>
-      </c>
-      <c r="D95" s="65">
-        <v>1.88169042931706</v>
-      </c>
-      <c r="E95" s="65">
-        <v>2.4086782636050201</v>
-      </c>
-      <c r="F95" s="66">
-        <v>1.8156629070640001E-2</v>
-      </c>
-      <c r="G95" s="67">
+      <c r="C95" s="122">
+        <v>42.062070879041499</v>
+      </c>
+      <c r="D95" s="123">
+        <v>1.8810159833781701</v>
+      </c>
+      <c r="E95" s="123">
+        <v>2.40970299448048</v>
+      </c>
+      <c r="F95" s="124">
+        <v>1.8200504161279999E-2</v>
+      </c>
+      <c r="G95" s="125">
         <v>60414.257424916897</v>
       </c>
-      <c r="H95" s="68">
+      <c r="H95" s="126">
         <v>3345.7021388744001</v>
       </c>
-      <c r="I95" s="68">
+      <c r="I95" s="126">
         <v>3419.8121678069701</v>
       </c>
-      <c r="J95" s="69">
+      <c r="J95" s="127">
         <v>28.0694171629005</v>
       </c>
-      <c r="K95" s="65">
+      <c r="K95" s="128">
         <v>4.5520376035502697</v>
       </c>
-      <c r="L95" s="66">
+      <c r="L95" s="129">
         <v>0.72168376043090998</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="62" t="s">
+      <c r="A96" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="B96" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C96" s="71">
-        <v>54.7716011999809</v>
-      </c>
-      <c r="D96" s="72">
-        <v>3.7031540410963202</v>
-      </c>
-      <c r="E96" s="72">
-        <v>8.5647325659166995</v>
-      </c>
-      <c r="F96" s="73">
-        <v>0.30919971944786001</v>
-      </c>
-      <c r="G96" s="74">
+      <c r="C96" s="104">
+        <v>54.749171279404202</v>
+      </c>
+      <c r="D96" s="105">
+        <v>3.7018436284128402</v>
+      </c>
+      <c r="E96" s="105">
+        <v>8.5647325669919603</v>
+      </c>
+      <c r="F96" s="106">
+        <v>0.30919971950861003</v>
+      </c>
+      <c r="G96" s="107">
         <v>249475.40492598101</v>
       </c>
-      <c r="H96" s="75">
+      <c r="H96" s="108">
         <v>19326.144802024399</v>
       </c>
-      <c r="I96" s="75">
+      <c r="I96" s="108">
         <v>36180.882080076502</v>
       </c>
-      <c r="J96" s="76">
+      <c r="J96" s="109">
         <v>1267.3965109854801</v>
       </c>
-      <c r="K96" s="72">
+      <c r="K96" s="110">
         <v>7.2006550724478897</v>
       </c>
-      <c r="L96" s="73">
+      <c r="L96" s="111">
         <v>1.32447366386932</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="62" t="s">
+      <c r="A97" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B97" s="77" t="s">
+      <c r="B97" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="78">
-        <v>30.1637791765042</v>
-      </c>
-      <c r="D97" s="79">
-        <v>1.47154234605736</v>
-      </c>
-      <c r="E97" s="79">
-        <v>3.5068357500501</v>
-      </c>
-      <c r="F97" s="80">
-        <v>0.10320212093509</v>
-      </c>
-      <c r="G97" s="81">
+      <c r="C97" s="140">
+        <v>30.2200099937711</v>
+      </c>
+      <c r="D97" s="141">
+        <v>1.47340595912797</v>
+      </c>
+      <c r="E97" s="141">
+        <v>3.5141001289643601</v>
+      </c>
+      <c r="F97" s="142">
+        <v>0.10311989540699</v>
+      </c>
+      <c r="G97" s="143">
         <v>266709.12833881</v>
       </c>
-      <c r="H97" s="82">
+      <c r="H97" s="144">
         <v>14350.9297191145</v>
       </c>
-      <c r="I97" s="82">
+      <c r="I97" s="144">
         <v>30828.2536908207</v>
       </c>
-      <c r="J97" s="83">
+      <c r="J97" s="145">
         <v>962.51203225982204</v>
       </c>
-      <c r="K97" s="79">
+      <c r="K97" s="146">
         <v>4.2142269043778002</v>
       </c>
-      <c r="L97" s="80">
+      <c r="L97" s="147">
         <v>3.0860156484042398</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="62" t="s">
+      <c r="A98" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B98" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="C98" s="71">
-        <v>15.5608728645733</v>
-      </c>
-      <c r="D98" s="72">
-        <v>1.0502077208534799</v>
-      </c>
-      <c r="E98" s="72">
-        <v>1.17030409899167</v>
-      </c>
-      <c r="F98" s="73">
-        <v>2.755461802495E-2</v>
-      </c>
-      <c r="G98" s="74">
+      <c r="C98" s="131">
+        <v>15.3972049750042</v>
+      </c>
+      <c r="D98" s="132">
+        <v>1.03983493621207</v>
+      </c>
+      <c r="E98" s="132">
+        <v>1.1582849255451499</v>
+      </c>
+      <c r="F98" s="133">
+        <v>2.7288522460570001E-2</v>
+      </c>
+      <c r="G98" s="134">
         <v>137431.88391894699</v>
       </c>
-      <c r="H98" s="75">
+      <c r="H98" s="135">
         <v>9715.9932000691497</v>
       </c>
-      <c r="I98" s="75">
+      <c r="I98" s="135">
         <v>11012.4769014965</v>
       </c>
-      <c r="J98" s="76">
+      <c r="J98" s="136">
         <v>382.64407660807899</v>
       </c>
-      <c r="K98" s="72">
+      <c r="K98" s="137">
         <v>6.84990250165162</v>
       </c>
-      <c r="L98" s="73">
+      <c r="L98" s="138">
         <v>3.7483864031178298</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="85"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
+      <c r="A99" s="149"/>
+      <c r="B99" s="150"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="86"/>
-      <c r="G100" s="86"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="86"/>
-      <c r="J100" s="86"/>
-      <c r="K100" s="86"/>
-      <c r="L100" s="86"/>
+      <c r="C100" s="151"/>
+      <c r="D100" s="151"/>
+      <c r="E100" s="151"/>
+      <c r="F100" s="151"/>
+      <c r="G100" s="151"/>
+      <c r="H100" s="151"/>
+      <c r="I100" s="151"/>
+      <c r="J100" s="151"/>
+      <c r="K100" s="151"/>
+      <c r="L100" s="151"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
-      <c r="G101" s="86"/>
-      <c r="H101" s="86"/>
-      <c r="I101" s="86"/>
-      <c r="J101" s="86"/>
-      <c r="K101" s="86"/>
-      <c r="L101" s="86"/>
+      <c r="C101" s="151"/>
+      <c r="D101" s="151"/>
+      <c r="E101" s="151"/>
+      <c r="F101" s="151"/>
+      <c r="G101" s="151"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="151"/>
+      <c r="J101" s="151"/>
+      <c r="K101" s="151"/>
+      <c r="L101" s="151"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="86"/>
-      <c r="J102" s="86"/>
-      <c r="K102" s="86"/>
-      <c r="L102" s="86"/>
+      <c r="C102" s="151"/>
+      <c r="D102" s="151"/>
+      <c r="E102" s="151"/>
+      <c r="F102" s="151"/>
+      <c r="G102" s="151"/>
+      <c r="H102" s="151"/>
+      <c r="I102" s="151"/>
+      <c r="J102" s="151"/>
+      <c r="K102" s="151"/>
+      <c r="L102" s="151"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="86"/>
-      <c r="H103" s="86"/>
-      <c r="I103" s="86"/>
-      <c r="J103" s="86"/>
-      <c r="K103" s="86"/>
-      <c r="L103" s="86"/>
+      <c r="C103" s="151"/>
+      <c r="D103" s="151"/>
+      <c r="E103" s="151"/>
+      <c r="F103" s="151"/>
+      <c r="G103" s="151"/>
+      <c r="H103" s="151"/>
+      <c r="I103" s="151"/>
+      <c r="J103" s="151"/>
+      <c r="K103" s="151"/>
+      <c r="L103" s="151"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="86"/>
-      <c r="J104" s="86"/>
-      <c r="K104" s="86"/>
-      <c r="L104" s="86"/>
+      <c r="C104" s="151"/>
+      <c r="D104" s="151"/>
+      <c r="E104" s="151"/>
+      <c r="F104" s="151"/>
+      <c r="G104" s="151"/>
+      <c r="H104" s="151"/>
+      <c r="I104" s="151"/>
+      <c r="J104" s="151"/>
+      <c r="K104" s="151"/>
+      <c r="L104" s="151"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="86"/>
-      <c r="H105" s="86"/>
-      <c r="I105" s="86"/>
-      <c r="J105" s="86"/>
-      <c r="K105" s="86"/>
-      <c r="L105" s="86"/>
+      <c r="C105" s="151"/>
+      <c r="D105" s="151"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="151"/>
+      <c r="G105" s="151"/>
+      <c r="H105" s="151"/>
+      <c r="I105" s="151"/>
+      <c r="J105" s="151"/>
+      <c r="K105" s="151"/>
+      <c r="L105" s="151"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="86"/>
-      <c r="E106" s="86"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="86"/>
-      <c r="J106" s="86"/>
-      <c r="K106" s="86"/>
-      <c r="L106" s="86"/>
+      <c r="C106" s="151"/>
+      <c r="D106" s="151"/>
+      <c r="E106" s="151"/>
+      <c r="F106" s="151"/>
+      <c r="G106" s="151"/>
+      <c r="H106" s="151"/>
+      <c r="I106" s="151"/>
+      <c r="J106" s="151"/>
+      <c r="K106" s="151"/>
+      <c r="L106" s="151"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="87"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="86"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="86"/>
-      <c r="H107" s="86"/>
-      <c r="I107" s="86"/>
-      <c r="J107" s="86"/>
-      <c r="K107" s="86"/>
-      <c r="L107" s="86"/>
+      <c r="B107" s="152" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" s="151"/>
+      <c r="D107" s="151"/>
+      <c r="E107" s="151"/>
+      <c r="F107" s="151"/>
+      <c r="G107" s="151"/>
+      <c r="H107" s="151"/>
+      <c r="I107" s="151"/>
+      <c r="J107" s="151"/>
+      <c r="K107" s="151"/>
+      <c r="L107" s="151"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="87"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="86"/>
-      <c r="E108" s="86"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="86"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="86"/>
-      <c r="J108" s="86"/>
-      <c r="K108" s="86"/>
-      <c r="L108" s="86"/>
+      <c r="B108" s="152"/>
+      <c r="C108" s="151"/>
+      <c r="D108" s="151"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="151"/>
+      <c r="G108" s="151"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="151"/>
+      <c r="J108" s="151"/>
+      <c r="K108" s="151"/>
+      <c r="L108" s="151"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C109" s="86"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="86"/>
-      <c r="H109" s="86"/>
-      <c r="I109" s="86"/>
-      <c r="J109" s="86"/>
-      <c r="K109" s="86"/>
-      <c r="L109" s="86"/>
+      <c r="C109" s="151"/>
+      <c r="D109" s="151"/>
+      <c r="E109" s="151"/>
+      <c r="F109" s="151"/>
+      <c r="G109" s="151"/>
+      <c r="H109" s="151"/>
+      <c r="I109" s="151"/>
+      <c r="J109" s="151"/>
+      <c r="K109" s="151"/>
+      <c r="L109" s="151"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C110" s="86"/>
-      <c r="D110" s="86"/>
-      <c r="E110" s="86"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="86"/>
-      <c r="I110" s="86"/>
-      <c r="J110" s="86"/>
-      <c r="K110" s="86"/>
-      <c r="L110" s="86"/>
+      <c r="C110" s="151"/>
+      <c r="D110" s="151"/>
+      <c r="E110" s="151"/>
+      <c r="F110" s="151"/>
+      <c r="G110" s="151"/>
+      <c r="H110" s="151"/>
+      <c r="I110" s="151"/>
+      <c r="J110" s="151"/>
+      <c r="K110" s="151"/>
+      <c r="L110" s="151"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="86"/>
-      <c r="J111" s="86"/>
-      <c r="K111" s="86"/>
-      <c r="L111" s="86"/>
+      <c r="C111" s="151"/>
+      <c r="D111" s="151"/>
+      <c r="E111" s="151"/>
+      <c r="F111" s="151"/>
+      <c r="G111" s="151"/>
+      <c r="H111" s="151"/>
+      <c r="I111" s="151"/>
+      <c r="J111" s="151"/>
+      <c r="K111" s="151"/>
+      <c r="L111" s="151"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="86"/>
-      <c r="D112" s="86"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="86"/>
-      <c r="G112" s="86"/>
-      <c r="H112" s="86"/>
-      <c r="I112" s="86"/>
-      <c r="J112" s="86"/>
-      <c r="K112" s="86"/>
-      <c r="L112" s="86"/>
+        <v>173</v>
+      </c>
+      <c r="C112" s="151"/>
+      <c r="D112" s="151"/>
+      <c r="E112" s="151"/>
+      <c r="F112" s="151"/>
+      <c r="G112" s="151"/>
+      <c r="H112" s="151"/>
+      <c r="I112" s="151"/>
+      <c r="J112" s="151"/>
+      <c r="K112" s="151"/>
+      <c r="L112" s="151"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="86"/>
-      <c r="G113" s="86"/>
-      <c r="H113" s="86"/>
-      <c r="I113" s="86"/>
-      <c r="J113" s="86"/>
-      <c r="K113" s="86"/>
-      <c r="L113" s="86"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="151"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="151"/>
+      <c r="G113" s="151"/>
+      <c r="H113" s="151"/>
+      <c r="I113" s="151"/>
+      <c r="J113" s="151"/>
+      <c r="K113" s="151"/>
+      <c r="L113" s="151"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="86"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
-      <c r="K114" s="86"/>
-      <c r="L114" s="86"/>
+      <c r="C114" s="151"/>
+      <c r="D114" s="151"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="151"/>
+      <c r="G114" s="151"/>
+      <c r="H114" s="151"/>
+      <c r="I114" s="151"/>
+      <c r="J114" s="151"/>
+      <c r="K114" s="151"/>
+      <c r="L114" s="151"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{C7B4C39A-0D12-408B-BBB9-7DD4248CDCAE}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{4C9502E9-BD88-405B-B282-63C985C8F8E9}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{EB6611BB-556C-4AED-9C5C-57B6069A18D5}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{D410474C-D885-43E3-BE94-C6070761DEA3}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{47A6D8BE-135C-427E-BB36-A6764CA8E823}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{7A7496A9-8376-417A-843A-AFADF913BB49}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{753309F5-161B-412F-A10C-F82456A2CF6F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{26EB6D95-9ED1-42A7-BFAD-76AE06487F2D}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{8B02FFAA-5E0E-40D6-AE83-0AEE97931B31}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{390637CB-C837-40C1-8B7D-7C5F748DE310}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{68D62608-55B9-409C-ACBB-458309C80D1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AfDD_2024_Annex_Table_Tab22.xlsx
+++ b/AfDD_2024_Annex_Table_Tab22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFE04CD-AFF2-45E7-B6E6-C369CB29631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{502509B7-CC9A-4CD8-872C-5245F791C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{1D9CB700-C53C-49EB-A9F1-6721C7E45939}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD156167-003B-46B6-9AC6-D29AA6D5D8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="176">
   <si>
     <t>Table 22: Returns on direct investments</t>
   </si>
@@ -553,9 +553,6 @@
   </si>
   <si>
     <t>Source: IMF Balance of Payments and International Investment Position Statistics (updated 25/10/2023).</t>
-  </si>
-  <si>
-    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024</t>
   </si>
   <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
@@ -1690,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EDCF9-C9CD-455A-8784-D72CC8B10E35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F57236-AD8B-47B3-AC14-993B0DE6ABDD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5531,9 +5528,7 @@
       <c r="L106" s="151"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="152" t="s">
-        <v>172</v>
-      </c>
+      <c r="B107" s="152"/>
       <c r="C107" s="151"/>
       <c r="D107" s="151"/>
       <c r="E107" s="151"/>
@@ -5560,7 +5555,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C109" s="151"/>
       <c r="D109" s="151"/>
@@ -5575,7 +5570,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C110" s="151"/>
       <c r="D110" s="151"/>
@@ -5590,7 +5585,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" s="151"/>
       <c r="D111" s="151"/>
@@ -5605,7 +5600,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C112" s="151"/>
       <c r="D112" s="151"/>
@@ -5646,11 +5641,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{753309F5-161B-412F-A10C-F82456A2CF6F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{26EB6D95-9ED1-42A7-BFAD-76AE06487F2D}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{8B02FFAA-5E0E-40D6-AE83-0AEE97931B31}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{390637CB-C837-40C1-8B7D-7C5F748DE310}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{68D62608-55B9-409C-ACBB-458309C80D1C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F525051D-EF4F-45B9-94E6-B64A5B3E1A62}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6B79161C-727F-4BF9-8D4A-4B6E9BE66542}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{547F897F-EFDB-41E3-8868-F960EBFA173C}"/>
+    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024" xr:uid="{1DDB905B-19D2-4F15-9D93-4FF5B4FE2594}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{284A3A27-86DE-41D5-8256-A08BA2155BB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2024_Annex_Table_Tab22.xlsx
+++ b/AfDD_2024_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502509B7-CC9A-4CD8-872C-5245F791C035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B19E9E-A0F9-42E6-9DF0-F59B4EC000BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD156167-003B-46B6-9AC6-D29AA6D5D8AE}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E27D64F3-A8B0-446D-A20A-3EBAB9603232}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1369,9 +1369,9 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F57236-AD8B-47B3-AC14-993B0DE6ABDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F4653F-F44D-46EA-B79D-D91BD7386F04}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1699,12 +1699,12 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="154" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="154" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="154" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="154" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.42578125" style="154" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="155" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="155" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="155" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="155" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.42578125" style="154" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
       <c r="L110" s="151"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="155" t="s">
+      <c r="B111" s="153" t="s">
         <v>175</v>
       </c>
       <c r="C111" s="151"/>
@@ -5599,7 +5599,7 @@
       <c r="L111" s="151"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="153" t="s">
         <v>172</v>
       </c>
       <c r="C112" s="151"/>
@@ -5641,11 +5641,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{F525051D-EF4F-45B9-94E6-B64A5B3E1A62}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{6B79161C-727F-4BF9-8D4A-4B6E9BE66542}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{547F897F-EFDB-41E3-8868-F960EBFA173C}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024" xr:uid="{1DDB905B-19D2-4F15-9D93-4FF5B4FE2594}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{284A3A27-86DE-41D5-8256-A08BA2155BB1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A9B94ECE-BDAB-48FF-84D1-C6C05FC0BE39}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CD423FD9-7CBA-42A4-A6D2-C2967FCCDF67}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024" xr:uid="{22BF2BDE-FC76-4FA5-B747-6E5BF803E18D}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{18A7FFF6-6D73-40FC-A795-B84E8062913F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{76134D9D-DC83-44E8-A8B0-61FB5E452C6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>

--- a/AfDD_2024_Annex_Table_Tab22.xlsx
+++ b/AfDD_2024_Annex_Table_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85B19E9E-A0F9-42E6-9DF0-F59B4EC000BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC0AEBE-7FA4-4A69-888E-CEF80C26DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E27D64F3-A8B0-446D-A20A-3EBAB9603232}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B2EEF716-63B9-4E94-B05B-6431AFE16E9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F4653F-F44D-46EA-B79D-D91BD7386F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C282EDD7-E07C-4F99-A06C-E1814D7CDB70}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5641,11 +5641,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A9B94ECE-BDAB-48FF-84D1-C6C05FC0BE39}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{CD423FD9-7CBA-42A4-A6D2-C2967FCCDF67}"/>
-    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024" xr:uid="{22BF2BDE-FC76-4FA5-B747-6E5BF803E18D}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{18A7FFF6-6D73-40FC-A795-B84E8062913F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{76134D9D-DC83-44E8-A8B0-61FB5E452C6C}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{EDB46F63-402D-4F92-9E1A-09844226C9D9}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{224631C3-28D0-4648-88AE-A317F751FEB0}"/>
+    <hyperlink ref="B107" r:id="rId3" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2024" xr:uid="{310BEA86-528C-4E6A-A984-BA9BA676E530}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{15B52E7F-8BEE-4076-A715-C3D7014DA157}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{B1337CB4-3131-4CFC-9B13-1C9DEB0DFBFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId6"/>
